--- a/what/kesehatan/df_result_lda.xlsx
+++ b/what/kesehatan/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['tanaman', 'menyebabkan', 'mencegah', 'penyakit', 'indonesia', 'masuk', 'gejala']</t>
+          <t>['penyakit', 'masuk', 'mencegah', 'gejala', 'menyebabkan', 'indonesia', 'kondisi', 'penyebab', 'tanaman']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['buah', 'rumah_sakit', 'keluarga', 'kondisi', 'darah', 'kesehatan', 'memiliki', 'jantung', 'digelar', 'air']</t>
+          <t>['rumah_sakit', 'buah', 'keluarga', 'memiliki', 'darah', 'kesehatan', 'digelar', 'kondisi', 'air', 'jantung', 'tubuh']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['tubuh', 'kandungan', 'meningkatkan', 'perempuan', 'sehat', 'mencegah', 'mengandung', 'makanan', 'kesehatan', 'memiliki', 'membantu']</t>
+          <t>['kandungan', 'meningkatkan', 'mencegah', 'perempuan', 'memiliki', 'sehat', 'menyebabkan', 'makanan', 'membantu', 'mengandung', 'kesehatan', 'mengurangi', 'tubuh']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'kondisi', 'tersangka', 'perempuan', 'langsung', 'sehat', 'sakit', 'dokter', 'kesehatan', 'hukum']</t>
+          <t>['hukum', 'rumah_sakit', 'keluarga', 'perempuan', 'sehat', 'mengaku', 'kondisi', 'sakit', 'kesehatan', 'tersangka', 'dokter', 'langsung']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'kepala', 'penyakit', 'kali', 'rumah']</t>
+          <t>['penyakit', 'rumah', 'korban', 'kali', 'kepala', 'ditemukan']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['vaksin', 'data', 'corona', 'kebijakan', 'persen', 'meningkatkan', 'virus', 'mencegah', 'sakit', 'semoga', 'kesehatan', 'terkait', 'covid', 'warga']</t>
+          <t>['vaksinasi', 'virus', 'persen', 'meningkatkan', 'mencegah', 'protokol_kesehatan', 'data', 'corona', 'kegiatan', 'terkait', 'semoga', 'sakit', 'covid', 'kesehatan', 'vaksin', 'kebijakan', 'warga']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['tubuh', 'menyebabkan', 'virus', 'sehat', 'mencegah', 'infeksi', 'sakit', 'penyakit', 'kesehatan', 'memiliki', 'hiv', 'jenis', 'terkait', 'gejala', 'mengalami', 'dunia']</t>
+          <t>['penyakit', 'virus', 'infeksi', 'hiv', 'mencegah', 'gejala', 'jenis', 'sehat', 'memiliki', 'menyebabkan', 'dunia', 'sakit', 'kesehatan', 'terkait', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['bali', 'semoga', 'kesehatan']</t>
+          <t>['semoga', 'indonesia', 'kesehatan', 'jakarta', 'bali']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['negara', 'peserta', 'semoga', 'pemerintah', 'kesehatan', 'indonesia', 'jenis', 'pendidikan', 'aturan']</t>
+          <t>['kerja', 'pendidikan', 'daerah', 'peserta', 'aturan', 'jenis', 'semoga', 'warga', 'indonesia', 'negara', 'kesehatan', 'surat', 'pemerintah']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['sekolah', 'kegiatan', 'meningkatkan', 'program', 'semoga', 'kesehatan', 'indonesia', 'memiliki', 'membantu', 'bantuan']</t>
+          <t>['meningkatkan', 'sekolah', 'kegiatan', 'program', 'bantuan', 'memiliki', 'semoga', 'indonesia', 'kepala', 'membantu', 'kesehatan', 'provinsi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['obat', 'bencana', 'cianjur', 'korban', 'kepala', 'keluarga', 'kesehatan', 'indonesia', 'gempa', 'obat_obatan', 'membantu', 'terkait', 'rumah', 'warga', 'tim']</t>
+          <t>['rumah', 'kepala', 'laporan', 'air', 'gempa', 'korban', 'terkait', 'indonesia', 'dokter', 'tim', 'warga', 'hukum', 'keluarga', 'pengungsi', 'cianjur', 'bantuan', 'membantu', 'kesehatan', 'bencana', 'jawa', 'obat']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['data', 'corona', 'virus', 'pasien', 'covid']</t>
+          <t>['virus', 'data', 'corona', 'pasien', 'indonesia', 'covid', 'provinsi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['usia', 'tubuh', 'kandungan', 'sehat', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'jenis', 'mengalami']</t>
+          <t>['penyakit', 'kandungan', 'usia', 'manfaat', 'jenis', 'sehat', 'memiliki', 'darah', 'kondisi', 'kesehatan', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['data', 'meningkatkan', 'target', 'sehat', 'program', 'puskesmas', 'semoga', 'dokter', 'pemerintah', 'kesehatan', 'indonesia', 'memiliki', 'terkait', 'daerah', 'angka', 'penyebab']</t>
+          <t>['daerah', 'target', 'meningkatkan', 'puskesmas', 'angka', 'data', 'semoga', 'program', 'memiliki', 'kesehatan', 'sehat', 'indonesia', 'penyebab', 'laporan', 'terkait', 'dokter', 'pemerintah']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['pelayanan', 'jawa', 'langsung', 'program', 'bandung', 'kesehatan', 'indonesia', 'bpjs_kesehatan', 'acara', 'jenis', 'kerja', 'terkait', 'daerah', 'rumah', 'layanan', 'provinsi', 'mengaku', 'pendidikan']</t>
+          <t>['rumah', 'acara', 'rumah_sakit', 'pemerintah', 'bandung', 'meningkatkan', 'indonesia', 'layanan', 'provinsi', 'pelayanan', 'kerja', 'daerah', 'program', 'mengaku', 'langsung', 'bpjs_kesehatan', 'jenis', 'kesehatan', 'terkait', 'jawa', 'pendidikan']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sistem', 'data', 'menyebabkan', 'meningkatkan', 'pemerintah', 'kesehatan', 'indonesia', 'terkait', 'layanan']</t>
+          <t>['sistem', 'meningkatkan', 'puskesmas', 'data', 'menyebabkan', 'indonesia', 'layanan', 'kesehatan', 'terkait', 'pemerintah']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['keluarga', 'kondisi', 'ribu', 'perempuan', 'sehat', 'sakit', 'semoga', 'dokter', 'penyakit', 'memiliki', 'daerah', 'warga', 'mengaku', 'bantuan']</t>
+          <t>['penyakit', 'daerah', 'rumah_sakit', 'ribu', 'semoga', 'perempuan', 'bantuan', 'memiliki', 'warga', 'sehat', 'kondisi', 'sakit', 'mengaku', 'terkait', 'dokter', 'keluarga']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'petugas', 'langsung', 'sakit', 'pelaku', 'kali', 'darah', 'laporan', 'rumah', 'warga']</t>
+          <t>['langsung', 'rumah', 'korban', 'rumah_sakit', 'petugas', 'kali', 'darah', 'polres', 'kepala', 'sakit', 'laporan', 'pelaku', 'polisi', 'warga']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['obat', 'polisi', 'tersangka', 'ribu', 'petugas', 'pelaku', 'bandung', 'kali', 'kesehatan', 'obat_obatan']</t>
+          <t>['bandung', 'ribu', 'petugas', 'kali', 'polres', 'pelaku', 'polisi', 'kesehatan', 'tersangka', 'tim', 'obat']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['negara', 'pelayanan', 'malam', 'bali', 'selamat', 'jalan', 'langsung', 'kali', 'kesehatan', 'kendaraan', 'memiliki']</t>
+          <t>['pelayanan', 'langsung', 'layanan', 'selamat', 'semoga', 'kali', 'memiliki', 'jalan', 'negara', 'kesehatan', 'surat', 'bali', 'malam', 'kendaraan', 'warga']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['obat', 'ditemukan', 'mengurangi', 'meningkatkan', 'mencegah', 'mengandung', 'kulit', 'penyakit', 'makanan', 'memiliki', 'pasien', 'gejala']</t>
+          <t>['penyakit', 'sistem', 'meningkatkan', 'mencegah', 'gejala', 'kulit', 'memiliki', 'pasien', 'makanan', 'membantu', 'ditemukan', 'air', 'mengurangi', 'mengandung', 'obat', 'kandungan']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['usia', 'tubuh', 'keluarga', 'jalan', 'penyebab', 'kegiatan', 'meningkatkan', 'sehat', 'penyakit', 'makanan', 'kesehatan', 'memiliki', 'membantu', 'dunia', 'rumah']</t>
+          <t>['penyakit', 'rumah', 'usia', 'meningkatkan', 'semoga', 'jenis', 'tubuh', 'sehat', 'memiliki', 'kegiatan', 'makanan', 'jalan', 'dunia', 'penyebab', 'membantu', 'mengurangi', 'kesehatan', 'keluarga']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['obat', 'diabetes', 'tubuh', 'kondisi', 'sehat', 'ginjal', 'penyakit', 'kali', 'darah', 'kesehatan', 'indonesia', 'terkait', 'dunia', 'jantung', 'angka']</t>
+          <t>['sehat', 'kondisi', 'dunia', 'air', 'jantung', 'diabetes', 'penyakit', 'kali', 'indonesia', 'dokter', 'tubuh', 'ginjal', 'angka', 'data', 'darah', 'makanan', 'kesehatan', 'terkait', 'obat']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['polisi', 'kepala', 'data', 'rumah_sakit', 'persen', 'pemerintah', 'kesehatan', 'masuk', 'hukum', 'pasien', 'terkait', 'covid', 'provinsi']</t>
+          <t>['pelayanan', 'hukum', 'daerah', 'masuk', 'persen', 'rumah_sakit', 'data', 'terkait', 'pasien', 'polres', 'kepala', 'covid', 'kesehatan', 'polisi', 'provinsi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['malam', 'kanker', 'diabetes', 'tubuh', 'kondisi', 'penyebab', 'mengurangi', 'kegiatan', 'meningkatkan', 'sehat', 'mencegah', 'sakit', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'membantu', 'manfaat', 'mengalami', 'jantung', 'pendidikan']</t>
+          <t>['mencegah', 'sehat', 'kondisi', 'malam', 'jantung', 'mengalami', 'diabetes', 'penyakit', 'meningkatkan', 'manfaat', 'tubuh', 'kegiatan', 'darah', 'kanker', 'penyebab', 'memiliki', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'pendidikan']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['cianjur', 'korban', 'virus', 'sehat', 'mencegah', 'puskesmas', 'infeksi', 'akut', 'kulit', 'penyakit', 'kesehatan', 'gempa', 'warga', 'gejala']</t>
+          <t>['infeksi', 'masuk', 'mencegah', 'gejala', 'sehat', 'kondisi', 'gempa', 'mengalami', 'penyakit', 'korban', 'puskesmas', 'tubuh', 'virus', 'makanan', 'akut', 'warga', 'cianjur', 'kulit', 'sakit', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['buah', 'korban', 'polisi', 'bali', 'jawa', 'petugas', 'kesehatan', 'mengalami', 'warga']</t>
+          <t>['mencegah', 'korban', 'buah', 'petugas', 'kondisi', 'polisi', 'kesehatan', 'bali', 'jawa', 'tim', 'mengalami', 'warga']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['data', 'corona', 'rumah_sakit', 'jawa', 'persen', 'virus', 'pemerintah', 'pasien', 'covid', 'angka']</t>
+          <t>['virus', 'persen', 'rumah_sakit', 'data', 'angka', 'corona', 'pasien', 'indonesia', 'covid', 'jawa', 'pemerintah']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['kepala', 'surat', 'keluarga', 'dunia', 'buah']</t>
+          <t>['buah', 'surat', 'kepala', 'keluarga']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'kepala', 'rumah_sakit', 'ribu', 'pelaku', 'kesehatan', 'pasien', 'kerja', 'mengalami', 'daerah', 'mengaku']</t>
+          <t>['kerja', 'daerah', 'korban', 'rumah_sakit', 'ribu', 'kali', 'mengaku', 'pasien', 'jalan', 'kepala', 'pelaku', 'polisi', 'kesehatan', 'mengalami']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['obat', 'buah', 'kanker', 'tubuh', 'hewan', 'peserta', 'kondisi', 'menyebabkan', 'kandungan', 'meningkatkan', 'perempuan', 'virus', 'mencegah', 'infeksi', 'sakit', 'kulit', 'ginjal', 'dokter', 'penyakit', 'darah', 'makanan', 'kesehatan', 'memiliki', 'membantu', 'jenis', 'covid', 'mengalami', 'jantung', 'manfaat']</t>
+          <t>['sistem', 'masuk', 'infeksi', 'mencegah', 'hewan', 'menyebabkan', 'kondisi', 'kepala', 'covid', 'jantung', 'mengalami', 'kandungan', 'penyakit', 'meningkatkan', 'manfaat', 'dokter', 'tubuh', 'virus', 'ginjal', 'peserta', 'buah', 'darah', 'makanan', 'kanker', 'penyebab', 'mengandung', 'usia', 'jenis', 'perempuan', 'memiliki', 'kulit', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['tanaman', 'sekolah', 'obat', 'kepala', 'bali', 'tubuh', 'jawa', 'kandungan', 'meningkatkan', 'sakit', 'mengandung', 'kulit', 'penyakit', 'kali', 'kesehatan', 'indonesia', 'memiliki', 'acara', 'membantu', 'manfaat', 'rumah', 'tim']</t>
+          <t>['rumah', 'mencegah', 'acara', 'dunia', 'kepala', 'tanaman', 'kandungan', 'penyakit', 'meningkatkan', 'manfaat', 'sekolah', 'kali', 'indonesia', 'tubuh', 'penyebab', 'mengandung', 'tim', 'warga', 'semoga', 'kulit', 'memiliki', 'sakit', 'membantu', 'kesehatan', 'bali', 'jawa', 'obat']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['usia', 'vaksin', 'pelayanan', 'rumah_sakit', 'kebijakan', 'kondisi', 'vaksinasi', 'sehat', 'pemerintah', 'kesehatan', 'membantu', 'layanan', 'protokol_kesehatan', 'aturan']</t>
+          <t>['vaksinasi', 'pelayanan', 'usia', 'puskesmas', 'rumah_sakit', 'protokol_kesehatan', 'aturan', 'sehat', 'memiliki', 'kesehatan', 'kondisi', 'membantu', 'layanan', 'pelaku', 'vaksin', 'kebijakan', 'dokter', 'pemerintah']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['negara', 'malam', 'keluarga', 'kondisi', 'terima_kasih', 'menyebabkan', 'meningkatkan', 'langsung', 'sehat', 'mencegah', 'semoga', 'kesehatan', 'memiliki', 'membantu', 'kerja', 'bantuan', 'penyebab']</t>
+          <t>['terima_kasih', 'kerja', 'langsung', 'meningkatkan', 'mencegah', 'semoga', 'sehat', 'bantuan', 'memiliki', 'menyebabkan', 'kondisi', 'penyebab', 'membantu', 'negara', 'kesehatan', 'malam', 'keluarga']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['sekolah', 'korban', 'polisi', 'jalan', 'tersangka', 'petugas', 'kali', 'kesehatan', 'terkait', 'mengalami']</t>
+          <t>['hukum', 'korban', 'sekolah', 'petugas', 'kali', 'jalan', 'kondisi', 'polisi', 'ditemukan', 'kesehatan', 'terkait', 'tersangka', 'mengalami']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['pelayanan', 'kegiatan', 'kandungan', 'petugas', 'sehat', 'darah', 'kesehatan', 'indonesia', 'hiv', 'layanan', 'digelar']</t>
+          <t>['pelayanan', 'hiv', 'puskesmas', 'mencegah', 'petugas', 'sehat', 'kegiatan', 'darah', 'digelar', 'indonesia', 'kondisi', 'kepala', 'layanan', 'kesehatan', 'kandungan']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['data', 'kesehatan', 'kelompok', 'memiliki', 'aturan']</t>
+          <t>['data', 'aturan', 'memiliki', 'indonesia', 'kelompok', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['polisi', 'virus', 'pelaku', 'kelompok', 'memiliki', 'tim', 'kepala']</t>
+          <t>['virus', 'bandung', 'memiliki', 'kepala', 'pelaku', 'polisi', 'kelompok', 'jawa', 'tim']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['jakarta', 'bencana', 'cianjur', 'korban', 'jalan', 'program', 'kali', 'kesehatan', 'terkait', 'digelar']</t>
+          <t>['cianjur', 'korban', 'acara', 'protokol_kesehatan', 'kegiatan', 'program', 'kali', 'digelar', 'jakarta', 'jalan', 'indonesia', 'kesehatan', 'terkait', 'bencana']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['jakarta', 'hewan', 'dokter', 'kesehatan', 'kerja', 'laporan']</t>
+          <t>['kerja', 'hewan', 'kesehatan', 'kondisi', 'kepala', 'laporan', 'jakarta', 'kebijakan', 'dokter']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['obat', 'bali', 'jalan', 'kandungan', 'penyakit', 'kali', 'kesehatan', 'mengaku']</t>
+          <t>['penyakit', 'kali', 'bantuan', 'mengaku', 'jalan', 'sakit', 'kesehatan', 'bali', 'obat', 'kandungan']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['korban', 'polisi', 'tubuh', 'kondisi', 'petugas', 'langsung', 'kesehatan', 'dunia', 'warga', 'bantuan']</t>
+          <t>['langsung', 'korban', 'petugas', 'bantuan', 'warga', 'kondisi', 'polisi', 'ditemukan', 'kesehatan', 'tubuh']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['usia', 'jalan', 'peserta', 'dokter', 'kesehatan', 'pandemi', 'daerah', 'mengaku', 'digelar', 'warga']</t>
+          <t>['daerah', 'usia', 'peserta', 'digelar', 'mengaku', 'jalan', 'kesehatan', 'pandemi', 'dokter', 'warga']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['jakarta', 'rumah_sakit', 'penyebab', 'program', 'puskesmas', 'sakit', 'penyakit', 'memiliki', 'warga']</t>
+          <t>['penyakit', 'rumah_sakit', 'petugas', 'program', 'memiliki', 'menyebabkan', 'mengalami', 'penyebab', 'sakit', 'puskesmas', 'jakarta', 'dokter', 'warga']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['korban', 'rumah_sakit', 'sakit', 'kesehatan', 'laporan']</t>
+          <t>['korban', 'rumah_sakit', 'kali', 'kesehatan', 'sakit', 'laporan', 'jakarta', 'dokter']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['jakarta', 'bencana', 'negara', 'rumah_sakit', 'kegiatan', 'persen', 'program', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'membantu', 'kerja', 'covid', 'digelar']</t>
+          <t>['kerja', 'persen', 'rumah_sakit', 'kegiatan', 'program', 'kali', 'digelar', 'jakarta', 'indonesia', 'covid', 'membantu', 'negara', 'kesehatan', 'provinsi', 'pandemi', 'kebijakan', 'bencana', 'pemerintah']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['ditemukan', 'sistem', 'usia', 'kepala', 'data', 'keluarga', 'peserta', 'kondisi', 'penyakit', 'kali', 'kesehatan', 'kelompok', 'membantu', 'hukum', 'manfaat', 'dunia', 'laporan', 'tim']</t>
+          <t>['hukum', 'penyakit', 'sistem', 'usia', 'peserta', 'manfaat', 'data', 'kali', 'kesehatan', 'kondisi', 'kepala', 'membantu', 'ditemukan', 'laporan', 'kelompok', 'tim', 'keluarga']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['tubuh', 'menyebabkan', 'meningkatkan', 'sakit', 'kulit', 'kesehatan']</t>
+          <t>['meningkatkan', 'kulit', 'menyebabkan', 'kondisi', 'sakit', 'kesehatan', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['jakarta', 'negara', 'kondisi', 'persen', 'target', 'pemerintah', 'kesehatan', 'memiliki', 'acara', 'manfaat', 'mengalami', 'daerah', 'pendidikan']</t>
+          <t>['pendidikan', 'daerah', 'persen', 'target', 'acara', 'manfaat', 'memiliki', 'kondisi', 'negara', 'kesehatan', 'jakarta', 'mengalami', 'pemerintah']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['doa', 'rumah_sakit', 'selamat', 'perempuan', 'pemerintah', 'kesehatan', 'pasien']</t>
+          <t>['doa', 'rumah_sakit', 'selamat', 'perempuan', 'pasien', 'kesehatan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['jakarta', 'sistem', 'malam', 'terima_kasih', 'kegiatan', 'jawa', 'kesehatan', 'daerah', 'digelar']</t>
+          <t>['terima_kasih', 'jawa', 'daerah', 'sistem', 'kegiatan', 'digelar', 'indonesia', 'kesehatan', 'surat', 'jakarta', 'malam', 'tim']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['doa', 'tubuh', 'keluarga', 'terima_kasih', 'mengurangi', 'meningkatkan', 'langsung', 'sehat', 'sakit', 'relawan', 'semoga', 'kesehatan', 'memiliki', 'membantu', 'kerja', 'manfaat', 'dunia', 'bantuan']</t>
+          <t>['terima_kasih', 'doa', 'sistem', 'sehat', 'dunia', 'meningkatkan', 'manfaat', 'tubuh', 'kerja', 'relawan', 'langsung', 'keluarga', 'semoga', 'bantuan', 'memiliki', 'sakit', 'membantu', 'mengurangi', 'kesehatan']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['obat', 'kepala', 'tubuh', 'kondisi', 'virus', 'sakit', 'kesehatan', 'obat_obatan', 'hiv']</t>
+          <t>['virus', 'hiv', 'meningkatkan', 'gejala', 'sehat', 'kondisi', 'kepala', 'sakit', 'dunia', 'kesehatan', 'obat', 'tubuh']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['usia', 'vaksin', 'korban', 'bali', 'hewan', 'vaksinasi', 'virus', 'langsung', 'kesehatan', 'terkait', 'laporan', 'rumah', 'warga']</t>
+          <t>['vaksinasi', 'virus', 'langsung', 'rumah', 'usia', 'korban', 'vaksin', 'terkait', 'hewan', 'kesehatan', 'kepala', 'laporan', 'bali', 'mengalami', 'warga']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'kondisi', 'langsung', 'kali', 'polres', 'rumah', 'warga', 'mengaku', 'air', 'perempuan']</t>
+          <t>['langsung', 'rumah', 'korban', 'perempuan', 'kali', 'mengaku', 'kondisi', 'polres', 'ditemukan', 'air', 'warga']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ditemukan', 'mengurangi', 'sehat', 'kesehatan', 'memiliki', 'jenis', 'manfaat']</t>
+          <t>['ditemukan', 'manfaat', 'jenis', 'sehat', 'memiliki', 'mengurangi', 'mengandung', 'kesehatan']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['kepala', 'rumah_sakit', 'kondisi', 'sehat', 'dokter', 'kesehatan']</t>
+          <t>['jokowi', 'rumah_sakit', 'sehat', 'kondisi', 'kepala', 'kesehatan', 'dokter']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['virus', 'sakit', 'penyakit', 'memiliki', 'dunia', 'tim']</t>
+          <t>['kerja', 'virus', 'penyakit', 'gejala', 'memiliki', 'dunia', 'sakit', 'negara', 'tim', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['negara', 'pelayanan', 'kepala', 'keluarga', 'tersangka', 'petugas', 'kesehatan', 'indonesia', 'memiliki', 'rumah']</t>
+          <t>['pelayanan', 'rumah', 'petugas', 'memiliki', 'warga', 'indonesia', 'kondisi', 'kepala', 'negara', 'kesehatan', 'terkait', 'tersangka', 'keluarga']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['obat', 'usia', 'buah', 'negara', 'kanker', 'diabetes', 'tubuh', 'kondisi', 'menyebabkan', 'kandungan', 'meningkatkan', 'virus', 'infeksi', 'kulit', 'dokter', 'penyakit', 'darah', 'makanan', 'kesehatan', 'indonesia', 'memiliki', 'obat_obatan', 'membantu', 'pasien', 'jenis', 'kerja', 'mengalami', 'jantung', 'air', 'mencegah', 'manfaat']</t>
+          <t>['sistem', 'infeksi', 'mencegah', 'menyebabkan', 'kondisi', 'air', 'tanaman', 'jantung', 'mengalami', 'kandungan', 'diabetes', 'penyakit', 'meningkatkan', 'manfaat', 'indonesia', 'negara', 'dokter', 'tubuh', 'pelayanan', 'kerja', 'virus', 'buah', 'darah', 'makanan', 'kanker', 'mengandung', 'usia', 'jenis', 'semoga', 'kulit', 'memiliki', 'pasien', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['negara', 'keluarga', 'infeksi', 'kulit', 'penyakit', 'pandemi', 'covid', 'dunia']</t>
+          <t>['penyakit', 'infeksi', 'kulit', 'dunia', 'covid', 'negara', 'pandemi', 'keluarga']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['obat', 'diabetes', 'tubuh', 'menyebabkan', 'virus', 'infeksi', 'ginjal', 'penyakit', 'kesehatan', 'memiliki', 'terkait', 'gejala', 'jantung']</t>
+          <t>['diabetes', 'penyakit', 'virus', 'ginjal', 'infeksi', 'gejala', 'memiliki', 'kesehatan', 'menyebabkan', 'obat', 'kepala', 'sakit', 'air', 'terkait', 'jantung', 'dokter', 'tubuh']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['malam', 'kegiatan', 'gereja', 'kesehatan', 'polres', 'terkait', 'covid', 'warga']</t>
+          <t>['pelayanan', 'gereja', 'kegiatan', 'polres', 'covid', 'kesehatan', 'terkait', 'malam', 'warga']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['tubuh', 'menyebabkan', 'persen', 'mengandung', 'kali', 'makanan', 'kesehatan', 'memiliki', 'jenis', 'jantung', 'air']</t>
+          <t>['persen', 'manfaat', 'jenis', 'kali', 'memiliki', 'kesehatan', 'menyebabkan', 'makanan', 'mengandung', 'air', 'jantung', 'tubuh']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['obat', 'negara', 'corona', 'rumah_sakit', 'ribu', 'mengurangi', 'menyebabkan', 'persen', 'virus', 'infeksi', 'sakit', 'akut', 'pemerintah', 'darah', 'kesehatan', 'pandemi', 'pasien', 'covid', 'laporan', 'provinsi', 'angka']</t>
+          <t>['infeksi', 'rumah_sakit', 'ribu', 'menyebabkan', 'covid', 'laporan', 'pemerintah', 'persen', 'corona', 'negara', 'provinsi', 'pandemi', 'virus', 'angka', 'darah', 'akut', 'pasien', 'sakit', 'mengurangi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kepala', 'rumah_sakit', 'jalan', 'kondisi', 'jawa', 'kesehatan', 'bpjs_kesehatan', 'memiliki', 'kerja', 'daerah', 'layanan', 'mengaku']</t>
+          <t>['pelayanan', 'kerja', 'daerah', 'bpjs_kesehatan', 'rumah_sakit', 'memiliki', 'mengaku', 'jalan', 'kondisi', 'kepala', 'layanan', 'kesehatan', 'jawa', 'dokter', 'warga']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['jakarta', 'tersangka', 'jawa', 'kesehatan', 'indonesia', 'perusahaan', 'terkait']</t>
+          <t>['perusahaan', 'tersangka', 'jakarta', 'indonesia', 'negara', 'kesehatan', 'terkait', 'jawa']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tanaman', 'meningkatkan', 'sehat', 'penyakit', 'gejala']</t>
+          <t>['penyakit', 'meningkatkan', 'gejala', 'sehat', 'menyebabkan', 'tanaman']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['corona', 'virus', 'kesehatan', 'indonesia', 'pandemi', 'pasien', 'covid', 'protokol_kesehatan']</t>
+          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['bencana', 'cianjur', 'negara', 'korban', 'malam', 'kondisi', 'kegiatan', 'langsung', 'bandung', 'dokter', 'makanan', 'kesehatan', 'gempa', 'kelompok', 'acara', 'membantu', 'kerja', 'terkait', 'mengalami', 'dunia', 'bantuan', 'pengungsi', 'air']</t>
+          <t>['rumah', 'acara', 'kondisi', 'dunia', 'laporan', 'air', 'gempa', 'malam', 'mengalami', 'bandung', 'meningkatkan', 'korban', 'kelompok', 'negara', 'jakarta', 'dokter', 'bencana', 'kerja', 'kegiatan', 'program', 'makanan', 'tim', 'langsung', 'warga', 'pengungsi', 'cianjur', 'perempuan', 'bantuan', 'membantu', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['jakarta', 'usia', 'vaksin', 'kepala', 'bandung', 'kesehatan', 'layanan', 'aturan', 'ribu']</t>
+          <t>['vaksinasi', 'pelayanan', 'daerah', 'bandung', 'usia', 'puskesmas', 'aturan', 'ribu', 'memiliki', 'jakarta', 'kepala', 'layanan', 'kesehatan', 'vaksin', 'mengalami']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['tanaman', 'obat', 'kondisi', 'langsung', 'penyakit', 'darah', 'kesehatan', 'memiliki', 'jenis', 'manfaat', 'daerah']</t>
+          <t>['tanaman', 'langsung', 'penyakit', 'daerah', 'manfaat', 'jenis', 'memiliki', 'darah', 'kondisi', 'kesehatan', 'obat', 'tubuh']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['pelayanan', 'kebijakan', 'peserta', 'mengurangi', 'jawa', 'kesehatan', 'indonesia', 'provinsi', 'digelar']</t>
+          <t>['pelayanan', 'meningkatkan', 'peserta', 'manfaat', 'petugas', 'program', 'terkait', 'digelar', 'indonesia', 'kepala', 'mengurangi', 'layanan', 'kesehatan', 'provinsi', 'jawa', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['kepala', 'rumah_sakit', 'persen', 'hukum', 'pasien', 'terkait', 'covid']</t>
+          <t>['hukum', 'daerah', 'persen', 'rumah_sakit', 'pasien', 'kepala', 'covid', 'terkait']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['kepala', 'bali', 'langsung', 'sehat', 'penyakit', 'kesehatan', 'memiliki', 'terkait', 'air']</t>
+          <t>['penyakit', 'terkait', 'sehat', 'memiliki', 'kesehatan', 'makanan', 'jalan', 'kepala', 'air', 'bali', 'langsung']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['tubuh', 'kondisi', 'menyebabkan', 'infeksi', 'kulit', 'penyakit', 'darah', 'gejala', 'jantung']</t>
+          <t>['penyakit', 'sistem', 'infeksi', 'gejala', 'kulit', 'menyebabkan', 'darah', 'kondisi', 'jantung', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['jakarta', 'bencana', 'cianjur', 'korban', 'langsung', 'kesehatan', 'acara', 'kerja']</t>
+          <t>['kerja', 'cianjur', 'korban', 'acara', 'protokol_kesehatan', 'kegiatan', 'digelar', 'jakarta', 'indonesia', 'kesehatan', 'bencana', 'langsung']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['tersangka', 'petugas', 'perempuan', 'semoga', 'acara', 'daerah', 'provinsi', 'sakit']</t>
+          <t>['hukum', 'daerah', 'acara', 'petugas', 'perempuan', 'semoga', 'sakit', 'provinsi', 'tersangka']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['vaksin', 'bali', 'tubuh', 'kebijakan', 'ribu', 'vaksinasi', 'persen', 'puskesmas', 'semoga', 'penyakit', 'kesehatan', 'pandemi', 'covid', 'dunia', 'rumah', 'provinsi', 'angka', 'penyebab']</t>
+          <t>['vaksinasi', 'rumah', 'ribu', 'petugas', 'hewan', 'menyebabkan', 'kepala', 'covid', 'air', 'vaksin', 'kebijakan', 'penyakit', 'persen', 'puskesmas', 'provinsi', 'pandemi', 'tubuh', 'angka', 'kegiatan', 'penyebab', 'semoga', 'kesehatan', 'bali']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['data', 'corona', 'virus', 'pasien', 'covid']</t>
+          <t>['virus', 'data', 'corona', 'pasien', 'indonesia', 'covid', 'provinsi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['jalan', 'sehat', 'kesehatan', 'mengalami']</t>
+          <t>['hukum', 'sehat', 'jalan', 'indonesia', 'kesehatan', 'jakarta', 'mengalami']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['malam', 'bandung', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'masuk', 'acara', 'covid', 'protokol_kesehatan']</t>
+          <t>['masuk', 'bandung', 'acara', 'protokol_kesehatan', 'kali', 'kesehatan', 'indonesia', 'covid', 'air', 'malam', 'pandemi']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['jakarta', 'negara', 'kebijakan', 'target', 'langsung', 'pemerintah', 'kesehatan', 'indonesia', 'masuk', 'bpjs_kesehatan', 'digelar']</t>
+          <t>['hukum', 'langsung', 'masuk', 'target', 'bpjs_kesehatan', 'program', 'digelar', 'warga', 'indonesia', 'negara', 'kesehatan', 'jakarta', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['pelayanan', 'tubuh', 'kondisi', 'jawa', 'pemerintah', 'kesehatan', 'kendaraan', 'protokol_kesehatan', 'ribu']</t>
+          <t>['pelayanan', 'protokol_kesehatan', 'ribu', 'petugas', 'jalan', 'kondisi', 'mengalami', 'kesehatan', 'jawa', 'pemerintah', 'kendaraan', 'tubuh']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['corona', 'virus', 'kesehatan', 'indonesia', 'pandemi', 'pasien', 'covid', 'protokol_kesehatan']</t>
+          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['tanaman', 'kepala', 'jalan', 'hewan', 'kondisi', 'kendaraan', 'masuk', 'memiliki', 'rumah', 'warga']</t>
+          <t>['tanaman', 'rumah', 'masuk', 'laporan', 'hewan', 'memiliki', 'jalan', 'kondisi', 'kepala', 'air', 'kendaraan', 'warga']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['corona', 'tubuh', 'kebijakan', 'vaksinasi', 'persen', 'infeksi', 'pemerintah', 'kesehatan', 'indonesia', 'pandemi', 'masuk', 'memiliki', 'terkait', 'covid', 'dunia', 'warga']</t>
+          <t>['vaksinasi', 'infeksi', 'masuk', 'persen', 'corona', 'kegiatan', 'memiliki', 'warga', 'indonesia', 'dunia', 'covid', 'pandemi', 'kesehatan', 'terkait', 'pemerintah', 'kebijakan', 'tubuh']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['jakarta', 'negara', 'kepala', 'kegiatan', 'kesehatan', 'memiliki', 'covid', 'digelar']</t>
+          <t>['vaksinasi', 'pelayanan', 'meningkatkan', 'protokol_kesehatan', 'kegiatan', 'memiliki', 'digelar', 'jakarta', 'indonesia', 'kepala', 'covid', 'negara', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['jakarta', 'malam', 'jalan', 'kondisi', 'ribu', 'puskesmas', 'kesehatan', 'hukum', 'mengalami', 'daerah', 'bantuan', 'negara']</t>
+          <t>['hukum', 'daerah', 'puskesmas', 'ribu', 'bantuan', 'jakarta', 'jalan', 'kondisi', 'negara', 'kesehatan', 'provinsi', 'malam', 'mengalami']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['bencana', 'surat', 'kondisi', 'pasien', 'covid']</t>
+          <t>['pasien', 'kondisi', 'kepala', 'covid', 'surat', 'bencana']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['sistem', 'data', 'surat', 'peserta', 'perempuan', 'program', 'sakit', 'kesehatan', 'bpjs_kesehatan', 'membantu', 'perusahaan', 'terkait', 'manfaat', 'dunia', 'layanan']</t>
+          <t>['pelayanan', 'perusahaan', 'sistem', 'peserta', 'bpjs_kesehatan', 'manfaat', 'data', 'program', 'perempuan', 'dunia', 'sakit', 'membantu', 'layanan', 'kesehatan', 'surat', 'terkait']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['tanaman', 'ditemukan', 'buah', 'negara', 'malam', 'sakit', 'kesehatan', 'memiliki', 'perusahaan', 'jenis', 'dunia', 'rumah']</t>
+          <t>['tanaman', 'perusahaan', 'rumah', 'ditemukan', 'buah', 'jenis', 'memiliki', 'dunia', 'sakit', 'negara', 'kesehatan', 'malam']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['pelayanan', 'jalan', 'pemerintah', 'kesehatan', 'rumah', 'aturan']</t>
+          <t>['pelayanan', 'rumah', 'aturan', 'jalan', 'kepala', 'kesehatan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['ditemukan', 'vaksin', 'rumah_sakit', 'vaksinasi', 'target', 'langsung', 'pemerintah', 'kesehatan', 'laporan', 'provinsi', 'tim']</t>
+          <t>['vaksinasi', 'langsung', 'target', 'rumah_sakit', 'kesehatan', 'indonesia', 'dunia', 'ditemukan', 'laporan', 'vaksin', 'provinsi', 'tim', 'pemerintah']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ditemukan', 'sistem', 'kepala', 'tubuh', 'kondisi', 'penyebab', 'persen', 'infeksi', 'gejala', 'air']</t>
+          <t>['sistem', 'infeksi', 'persen', 'gejala', 'menyebabkan', 'kondisi', 'kepala', 'sakit', 'ditemukan', 'air', 'penyebab', 'mengalami', 'tubuh']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['jakarta', 'mengaku', 'jokowi']</t>
+          <t>['mengaku', 'kerja', 'jokowi']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['malam', 'kepala', 'rumah_sakit', 'kondisi', 'langsung', 'kesehatan', 'polres', 'pasien', 'polisi']</t>
+          <t>['rumah_sakit', 'bantuan', 'pasien', 'kondisi', 'polres', 'kepala', 'polisi', 'kesehatan', 'malam', 'langsung']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['negara', 'data', 'rumah_sakit', 'peserta', 'terima_kasih', 'kegiatan', 'persen', 'meningkatkan', 'langsung', 'sehat', 'program', 'puskesmas', 'kesehatan', 'bpjs_kesehatan', 'memiliki', 'hukum', 'terkait', 'daerah', 'rumah', 'warga', 'pelayanan']</t>
+          <t>['terima_kasih', 'rumah', 'rumah_sakit', 'sehat', 'pemerintah', 'persen', 'meningkatkan', 'negara', 'puskesmas', 'pelayanan', 'kerja', 'daerah', 'peserta', 'data', 'kegiatan', 'program', 'langsung', 'hukum', 'warga', 'bpjs_kesehatan', 'memiliki', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['obat', 'usia', 'vaksin', 'kondisi', 'vaksinasi', 'virus', 'infeksi', 'mengandung', 'penyakit', 'kesehatan', 'jenis']</t>
+          <t>['vaksinasi', 'penyakit', 'virus', 'infeksi', 'usia', 'vaksin', 'jenis', 'kondisi', 'negara', 'kesehatan', 'mengandung', 'obat']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['pelayanan', 'data', 'ribu', 'kegiatan', 'persen', 'kali', 'kesehatan', 'posko', 'membantu', 'terkait']</t>
+          <t>['pelayanan', 'persen', 'posko', 'data', 'ribu', 'kegiatan', 'kali', 'membantu', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['ditemukan', 'data', 'kebijakan', 'sehat', 'kali', 'kesehatan', 'kelompok', 'membantu', 'manfaat', 'mengalami', 'daerah', 'tim', 'dunia']</t>
+          <t>['daerah', 'manfaat', 'data', 'sehat', 'menyebabkan', 'kali', 'makanan', 'dunia', 'membantu', 'ditemukan', 'kesehatan', 'negara', 'kelompok', 'tim', 'kebijakan', 'mengalami']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['jakarta', 'pelayanan', 'kebijakan', 'persen', 'kesehatan', 'indonesia']</t>
+          <t>['pelayanan', 'persen', 'meningkatkan', 'peserta', 'manfaat', 'petugas', 'program', 'jakarta', 'indonesia', 'kepala', 'mengurangi', 'layanan', 'kesehatan', 'terkait', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['tubuh', 'kandungan', 'meningkatkan', 'sehat', 'penyakit', 'kali', 'darah', 'makanan', 'kesehatan', 'membantu', 'manfaat', 'jantung', 'tim']</t>
+          <t>['penyakit', 'sistem', 'masuk', 'kandungan', 'meningkatkan', 'manfaat', 'sehat', 'memiliki', 'darah', 'kesehatan', 'kali', 'makanan', 'membantu', 'mengurangi', 'air', 'tim', 'jantung', 'tubuh']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['vaksin', 'korban', 'bali', 'rumah_sakit', 'surat', 'kondisi', 'puskesmas', 'pemerintah', 'kesehatan', 'hukum', 'warga']</t>
+          <t>['hukum', 'masuk', 'puskesmas', 'korban', 'rumah_sakit', 'vaksin', 'hewan', 'warga', 'kondisi', 'kesehatan', 'surat', 'bali', 'pemerintah']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['korban', 'rumah_sakit', 'surat', 'sakit', 'dokter']</t>
+          <t>['korban', 'rumah_sakit', 'digelar', 'mengalami', 'sakit', 'surat', 'dokter']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['gereja', 'kali', 'kesehatan', 'memiliki', 'membantu', 'mengaku', 'protokol_kesehatan']</t>
+          <t>['gereja', 'protokol_kesehatan', 'kali', 'memiliki', 'mengaku', 'membantu', 'kesehatan']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['sekolah', 'cianjur', 'korban', 'kepala', 'keluarga', 'ribu', 'perempuan', 'kesehatan', 'indonesia', 'gempa', 'kelompok', 'rumah', 'tim', 'bantuan', 'pengungsi', 'warga']</t>
+          <t>['rumah', 'pengungsi', 'cianjur', 'korban', 'sekolah', 'ribu', 'perempuan', 'bantuan', 'warga', 'indonesia', 'kepala', 'gempa', 'kelompok', 'kesehatan', 'tim', 'keluarga']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['kepala', 'persen', 'langsung', 'program', 'bandung', 'semoga', 'kesehatan', 'indonesia', 'kelompok', 'acara', 'kerja', 'daerah', 'tim', 'angka', 'digelar']</t>
+          <t>['kerja', 'daerah', 'persen', 'bandung', 'mencegah', 'acara', 'angka', 'semoga', 'program', 'digelar', 'indonesia', 'kepala', 'kelompok', 'kesehatan', 'jawa', 'tim', 'langsung']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['pelayanan', 'jalan', 'penyebab', 'jawa', 'petugas', 'kali', 'darah', 'kesehatan', 'mengalami', 'jantung']</t>
+          <t>['pelayanan', 'angka', 'petugas', 'kali', 'darah', 'jalan', 'penyebab', 'kesehatan', 'jawa', 'jantung', 'mengalami']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['obat', 'jakarta', 'korban', 'gagal_ginjal', 'akut', 'ginjal', 'pemerintah', 'penyakit', 'kesehatan', 'indonesia', 'terkait', 'mengalami', 'provinsi', 'tim', 'laporan']</t>
+          <t>['penyakit', 'ginjal', 'korban', 'laporan', 'data', 'terkait', 'jakarta', 'indonesia', 'mengalami', 'kepala', 'akut', 'kesehatan', 'provinsi', 'tim', 'obat', 'pemerintah']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['vaksin', 'data', 'rumah_sakit', 'keluarga', 'target', 'kesehatan', 'pandemi', 'masuk', 'terkait', 'covid', 'warga', 'protokol_kesehatan', 'jokowi']</t>
+          <t>['vaksinasi', 'jokowi', 'masuk', 'target', 'rumah_sakit', 'data', 'protokol_kesehatan', 'keluarga', 'kegiatan', 'terkait', 'warga', 'covid', 'negara', 'kesehatan', 'vaksin', 'pandemi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['data', 'peserta', 'kondisi', 'kegiatan', 'jawa', 'meningkatkan', 'langsung', 'sehat', 'program', 'sakit', 'pemerintah', 'kesehatan', 'indonesia', 'bpjs_kesehatan', 'memiliki', 'daerah', 'warga', 'aturan']</t>
+          <t>['terima_kasih', 'sehat', 'kondisi', 'pemerintah', 'perusahaan', 'meningkatkan', 'indonesia', 'layanan', 'provinsi', 'pelayanan', 'daerah', 'peserta', 'data', 'kegiatan', 'program', 'langsung', 'warga', 'bpjs_kesehatan', 'aturan', 'memiliki', 'sakit', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['negara', 'rumah_sakit', 'peserta', 'jawa', 'dokter', 'kali', 'kesehatan', 'memiliki', 'acara', 'pendidikan', 'digelar']</t>
+          <t>['pendidikan', 'peserta', 'acara', 'rumah_sakit', 'semoga', 'kali', 'memiliki', 'digelar', 'negara', 'kesehatan', 'jawa', 'dokter', 'warga']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['korban', 'rumah_sakit', 'petugas', 'sakit', 'kesehatan', 'tim']</t>
+          <t>['hukum', 'korban', 'rumah_sakit', 'petugas', 'kali', 'sakit', 'kesehatan', 'jakarta', 'tim', 'dokter']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['usia', 'selamat', 'jawa', 'perempuan', 'kali', 'kesehatan', 'indonesia', 'jokowi']</t>
+          <t>['jokowi', 'usia', 'selamat', 'perempuan', 'kali', 'jalan', 'indonesia', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['jalan', 'kegiatan', 'jawa', 'kesehatan', 'polres']</t>
+          <t>['pelayanan', 'petugas', 'kegiatan', 'jalan', 'polres', 'kesehatan', 'jawa', 'pemerintah']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['bencana', 'cianjur', 'jawa', 'langsung', 'relawan', 'semoga', 'kesehatan', 'gempa', 'posko', 'rumah', 'warga']</t>
+          <t>['pelayanan', 'rumah', 'cianjur', 'posko', 'relawan', 'semoga', 'warga', 'gempa', 'kesehatan', 'bencana', 'jawa', 'langsung']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['jakarta', 'virus', 'infeksi', 'penyakit', 'makanan', 'masuk']</t>
+          <t>['penyakit', 'virus', 'infeksi', 'masuk', 'makanan', 'jakarta', 'mengalami']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['tanaman', 'menyebabkan', 'penyakit', 'jenis', 'gejala', 'mengalami']</t>
+          <t>['penyakit', 'gejala', 'jenis', 'menyebabkan', 'penyebab', 'tanaman', 'mengalami']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['sekolah', 'jakarta', 'sistem', 'pelayanan', 'malam', 'bali', 'rumah_sakit', 'keluarga', 'kondisi', 'kegiatan', 'persen', 'meningkatkan', 'langsung', 'sehat', 'program', 'pemerintah', 'kali', 'kesehatan', 'indonesia', 'pandemi', 'membantu', 'pasien', 'laporan', 'layanan', 'provinsi', 'mengaku', 'pendidikan', 'digelar']</t>
+          <t>['sistem', 'rumah_sakit', 'sehat', 'menyebabkan', 'digelar', 'kondisi', 'laporan', 'malam', 'mengalami', 'pemerintah', 'persen', 'meningkatkan', 'sekolah', 'kali', 'indonesia', 'layanan', 'provinsi', 'pandemi', 'pelayanan', 'kegiatan', 'program', 'mengaku', 'langsung', 'keluarga', 'pasien', 'sakit', 'membantu', 'kesehatan', 'bali', 'pendidikan']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['tubuh', 'ribu', 'langsung', 'sehat', 'kulit', 'penyakit', 'darah', 'makanan', 'kesehatan', 'kendaraan', 'memiliki', 'warga', 'air']</t>
+          <t>['penyakit', 'langsung', 'masuk', 'ribu', 'sehat', 'memiliki', 'darah', 'warga', 'jalan', 'kesehatan', 'makanan', 'kulit', 'air', 'kendaraan', 'tubuh']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'tubuh', 'kondisi', 'pasien']</t>
+          <t>['rumah_sakit', 'jenis', 'pasien', 'mengalami', 'kondisi', 'sakit', 'dokter', 'tubuh']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['jakarta', 'polisi', 'keluarga', 'jalan', 'sakit', 'kesehatan', 'masuk', 'memiliki', 'warga', 'mengaku', 'bantuan']</t>
+          <t>['masuk', 'keluarga', 'bantuan', 'memiliki', 'mengaku', 'jalan', 'sakit', 'polisi', 'kesehatan', 'jakarta', 'warga']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['usia', 'doa', 'selamat', 'gereja', 'sakit', 'semoga', 'dunia']</t>
+          <t>['doa', 'usia', 'gereja', 'selamat', 'semoga', 'dunia', 'sakit']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['negara', 'surat', 'keluarga', 'kondisi', 'kandungan', 'meningkatkan', 'perempuan', 'sehat', 'program', 'mencegah', 'kesehatan', 'kendaraan', 'memiliki', 'hukum', 'terkait', 'rumah', 'pendidikan', 'air']</t>
+          <t>['hukum', 'pendidikan', 'rumah', 'kandungan', 'meningkatkan', 'mencegah', 'program', 'perempuan', 'memiliki', 'kesehatan', 'sehat', 'kondisi', 'negara', 'air', 'surat', 'terkait', 'kendaraan', 'keluarga']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['jakarta', 'rumah_sakit', 'diabetes', 'tubuh', 'sehat', 'infeksi', 'kulit', 'penyakit', 'darah', 'acara', 'pasien', 'jenis', 'terkait', 'mengalami', 'jantung']</t>
+          <t>['diabetes', 'penyakit', 'infeksi', 'acara', 'rumah_sakit', 'jenis', 'sehat', 'jakarta', 'darah', 'pasien', 'mengalami', 'dunia', 'kulit', 'terkait', 'jantung', 'dokter', 'tubuh']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['obat', 'sistem', 'langsung', 'program', 'sakit', 'pemerintah', 'makanan', 'kesehatan', 'memiliki', 'terkait', 'daerah', 'pendidikan']</t>
+          <t>['langsung', 'pendidikan', 'sistem', 'daerah', 'rumah_sakit', 'aturan', 'program', 'memiliki', 'makanan', 'obat', 'indonesia', 'kesehatan', 'terkait', 'dokter', 'pemerintah']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['ditemukan', 'buah', 'diabetes', 'tubuh', 'kondisi', 'mengurangi', 'menyebabkan', 'kandungan', 'mencegah', 'penyakit', 'darah', 'makanan', 'kesehatan', 'membantu', 'jenis', 'jantung', 'manfaat']</t>
+          <t>['diabetes', 'penyakit', 'kandungan', 'mencegah', 'manfaat', 'jenis', 'buah', 'memiliki', 'darah', 'menyebabkan', 'makanan', 'kondisi', 'membantu', 'ditemukan', 'kesehatan', 'mengurangi', 'jantung', 'tubuh']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['corona', 'virus', 'kesehatan', 'indonesia', 'pandemi', 'pasien', 'covid']</t>
+          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['vaksin', 'jalan', 'penyebab', 'virus', 'kesehatan', 'indonesia', 'pasien', 'daerah']</t>
+          <t>['virus', 'daerah', 'pasien', 'jalan', 'indonesia', 'dunia', 'penyebab', 'kesehatan', 'vaksin']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'kandungan', 'langsung', 'sehat', 'mencegah', 'sakit', 'kulit', 'kali', 'kesehatan', 'memiliki', 'membantu', 'manfaat', 'dunia', 'rumah']</t>
+          <t>['kandungan', 'rumah', 'mencegah', 'manfaat', 'jenis', 'sehat', 'memiliki', 'kesehatan', 'menyebabkan', 'kali', 'dunia', 'sakit', 'membantu', 'kulit', 'air', 'langsung']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['jakarta', 'malam', 'doa', 'persen', 'gereja', 'pemerintah', 'kesehatan', 'covid', 'warga', 'protokol_kesehatan']</t>
+          <t>['doa', 'persen', 'gereja', 'protokol_kesehatan', 'warga', 'indonesia', 'covid', 'negara', 'kesehatan', 'jakarta', 'malam', 'pemerintah']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['ditemukan', 'korban', 'polisi', 'tubuh', 'keluarga', 'kondisi', 'jawa', 'petugas', 'sakit', 'penyakit', 'kesehatan', 'membantu', 'rumah', 'jantung', 'warga']</t>
+          <t>['penyakit', 'rumah', 'korban', 'gejala', 'tubuh', 'petugas', 'kesehatan', 'warga', 'kondisi', 'kepala', 'membantu', 'ditemukan', 'sakit', 'polisi', 'jawa', 'jantung', 'keluarga']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['kanker', 'langsung', 'mengandung', 'kesehatan', 'manfaat', 'mengaku']</t>
+          <t>['manfaat', 'memiliki', 'mengaku', 'kanker', 'mengandung', 'kesehatan', 'langsung']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['jakarta', 'usia', 'tubuh', 'kondisi', 'masuk', 'tim']</t>
+          <t>['masuk', 'usia', 'jenis', 'buah', 'kegiatan', 'menyebabkan', 'mengalami', 'kondisi', 'jakarta', 'tim', 'dokter', 'tubuh']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['jakarta', 'ditemukan', 'vaksin', 'persen', 'sakit', 'kali', 'kesehatan', 'pasien', 'covid', 'warga', 'gejala']</t>
+          <t>['vaksinasi', 'persen', 'gejala', 'kali', 'kesehatan', 'pasien', 'jakarta', 'kepala', 'sakit', 'ditemukan', 'pelaku', 'covid', 'vaksin', 'warga']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['data', 'persen', 'kali', 'indonesia', 'covid', 'warga', 'jokowi']</t>
+          <t>['jokowi', 'persen', 'data', 'kali', 'indonesia', 'covid', 'kebijakan', 'warga']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['malam', 'jalan', 'jawa', 'indonesia', 'rumah', 'mengaku']</t>
+          <t>['kerja', 'jawa', 'rumah', 'mengaku', 'jalan', 'indonesia', 'malam']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['obat', 'buah', 'kanker', 'diabetes', 'penyebab', 'mengurangi', 'langsung', 'mencegah', 'sakit', 'mengandung', 'akut', 'ginjal', 'dokter', 'penyakit', 'kali', 'kesehatan', 'membantu', 'pasien', 'jenis', 'gejala']</t>
+          <t>['mencegah', 'gejala', 'sehat', 'air', 'mengalami', 'diabetes', 'penyakit', 'kali', 'dokter', 'ginjal', 'buah', 'makanan', 'kanker', 'penyebab', 'mengandung', 'akut', 'langsung', 'jenis', 'pasien', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['usia', 'buah', 'diabetes', 'tubuh', 'keluarga', 'penyebab', 'persen', 'mencegah', 'mengandung', 'penyakit', 'kali', 'darah', 'kesehatan', 'memiliki', 'terkait', 'dunia', 'jantung', 'air']</t>
+          <t>['mencegah', 'kondisi', 'dunia', 'air', 'jantung', 'mengalami', 'diabetes', 'penyakit', 'persen', 'meningkatkan', 'manfaat', 'kali', 'dokter', 'tubuh', 'peserta', 'buah', 'darah', 'penyebab', 'mengandung', 'keluarga', 'usia', 'jenis', 'memiliki', 'kesehatan', 'terkait']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['sistem', 'program', 'pemerintah', 'penyakit', 'kesehatan', 'pandemi', 'covid', 'rumah', 'protokol_kesehatan', 'air']</t>
+          <t>['penyakit', 'sistem', 'rumah', 'protokol_kesehatan', 'program', 'kesehatan', 'covid', 'layanan', 'air', 'pandemi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['obat', 'ditemukan', 'sistem', 'vaksin', 'tubuh', 'kondisi', 'ribu', 'menyebabkan', 'vaksinasi', 'meningkatkan', 'virus', 'langsung', 'mencegah', 'penyakit', 'kesehatan', 'kelompok', 'pandemi', 'memiliki', 'terkait', 'covid', 'gejala', 'angka', 'dunia']</t>
+          <t>['vaksinasi', 'sistem', 'mencegah', 'gejala', 'ribu', 'menyebabkan', 'kondisi', 'dunia', 'covid', 'vaksin', 'mengalami', 'penyakit', 'meningkatkan', 'kelompok', 'negara', 'pandemi', 'tubuh', 'virus', 'daerah', 'angka', 'ditemukan', 'langsung', 'memiliki', 'kesehatan', 'terkait', 'obat']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['sistem', 'pelayanan', 'kanker', 'rumah_sakit', 'langsung', 'sehat', 'program', 'dokter', 'pemerintah', 'penyakit', 'kesehatan', 'pandemi', 'masuk', 'terkait', 'covid', 'daerah', 'jantung', 'pendidikan', 'puskesmas']</t>
+          <t>['sistem', 'masuk', 'rumah_sakit', 'sehat', 'menyebabkan', 'covid', 'jantung', 'pemerintah', 'penyakit', 'meningkatkan', 'indonesia', 'layanan', 'negara', 'puskesmas', 'pandemi', 'dokter', 'pelayanan', 'daerah', 'program', 'kanker', 'langsung', 'sakit', 'kesehatan', 'terkait', 'pendidikan']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['jakarta', 'peserta', 'jawa', 'bandung', 'kali', 'kesehatan', 'indonesia', 'acara', 'membantu', 'provinsi', 'mengaku', 'digelar']</t>
+          <t>['bandung', 'peserta', 'acara', 'kali', 'bantuan', 'digelar', 'jakarta', 'indonesia', 'mengaku', 'membantu', 'kesehatan', 'provinsi', 'jawa']</t>
         </is>
       </c>
       <c r="F145" t="n">

--- a/what/kesehatan/df_result_lda.xlsx
+++ b/what/kesehatan/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['penyakit', 'masuk', 'mencegah', 'gejala', 'menyebabkan', 'indonesia', 'kondisi', 'penyebab', 'tanaman']</t>
+          <t>['menyebabkan', 'penyakit', 'indonesia', 'masuk', 'mencegah', 'tanaman', 'kondisi', 'gejala', 'penyebab']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'buah', 'keluarga', 'memiliki', 'darah', 'kesehatan', 'digelar', 'kondisi', 'air', 'jantung', 'tubuh']</t>
+          <t>['rumah_sakit', 'air', 'jantung', 'keluarga', 'darah', 'memiliki', 'digelar', 'tubuh', 'kondisi', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['kandungan', 'meningkatkan', 'mencegah', 'perempuan', 'memiliki', 'sehat', 'menyebabkan', 'makanan', 'membantu', 'mengandung', 'kesehatan', 'mengurangi', 'tubuh']</t>
+          <t>['membantu', 'makanan', 'mengurangi', 'menyebabkan', 'mengandung', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'tubuh', 'sehat', 'kesehatan', 'perempuan']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['hukum', 'rumah_sakit', 'keluarga', 'perempuan', 'sehat', 'mengaku', 'kondisi', 'sakit', 'kesehatan', 'tersangka', 'dokter', 'langsung']</t>
+          <t>['rumah_sakit', 'mengaku', 'keluarga', 'langsung', 'sakit', 'sehat', 'tersangka', 'kondisi', 'dokter', 'kesehatan', 'hukum', 'perempuan']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['penyakit', 'rumah', 'korban', 'kali', 'kepala', 'ditemukan']</t>
+          <t>['rumah', 'ditemukan', 'penyakit', 'kali', 'kepala', 'korban']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'virus', 'persen', 'meningkatkan', 'mencegah', 'protokol_kesehatan', 'data', 'corona', 'kegiatan', 'terkait', 'semoga', 'sakit', 'covid', 'kesehatan', 'vaksin', 'kebijakan', 'warga']</t>
+          <t>['protokol_kesehatan', 'virus', 'warga', 'kegiatan', 'corona', 'covid', 'vaksinasi', 'mencegah', 'meningkatkan', 'persen', 'data', 'sakit', 'semoga', 'terkait', 'kebijakan', 'vaksin', 'kesehatan']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['penyakit', 'virus', 'infeksi', 'hiv', 'mencegah', 'gejala', 'jenis', 'sehat', 'memiliki', 'menyebabkan', 'dunia', 'sakit', 'kesehatan', 'terkait', 'mengalami', 'tubuh']</t>
+          <t>['hiv', 'sehat', 'menyebabkan', 'virus', 'infeksi', 'penyakit', 'mencegah', 'memiliki', 'jenis', 'tubuh', 'sakit', 'dunia', 'terkait', 'kesehatan', 'gejala', 'mengalami']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['semoga', 'indonesia', 'kesehatan', 'jakarta', 'bali']</t>
+          <t>['bali', 'indonesia', 'semoga', 'jakarta', 'kesehatan']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['kerja', 'pendidikan', 'daerah', 'peserta', 'aturan', 'jenis', 'semoga', 'warga', 'indonesia', 'negara', 'kesehatan', 'surat', 'pemerintah']</t>
+          <t>['pemerintah', 'aturan', 'warga', 'indonesia', 'kerja', 'jenis', 'kesehatan', 'semoga', 'pendidikan', 'peserta', 'surat', 'daerah', 'negara']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['meningkatkan', 'sekolah', 'kegiatan', 'program', 'bantuan', 'memiliki', 'semoga', 'indonesia', 'kepala', 'membantu', 'kesehatan', 'provinsi', 'pemerintah']</t>
+          <t>['membantu', 'pemerintah', 'kegiatan', 'indonesia', 'program', 'kepala', 'memiliki', 'meningkatkan', 'provinsi', 'sekolah', 'semoga', 'kesehatan', 'bantuan']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rumah', 'kepala', 'laporan', 'air', 'gempa', 'korban', 'terkait', 'indonesia', 'dokter', 'tim', 'warga', 'hukum', 'keluarga', 'pengungsi', 'cianjur', 'bantuan', 'membantu', 'kesehatan', 'bencana', 'jawa', 'obat']</t>
+          <t>['indonesia', 'kepala', 'bencana', 'membantu', 'air', 'korban', 'terkait', 'dokter', 'hukum', 'jawa', 'tim', 'obat', 'rumah', 'gempa', 'keluarga', 'laporan', 'cianjur', 'warga', 'pengungsi', 'kesehatan', 'bantuan']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['virus', 'data', 'corona', 'pasien', 'indonesia', 'covid', 'provinsi', 'pemerintah']</t>
+          <t>['pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'data', 'provinsi']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['penyakit', 'kandungan', 'usia', 'manfaat', 'jenis', 'sehat', 'memiliki', 'darah', 'kondisi', 'kesehatan', 'mengalami', 'tubuh']</t>
+          <t>['penyakit', 'darah', 'memiliki', 'usia', 'jenis', 'kandungan', 'manfaat', 'tubuh', 'sehat', 'kondisi', 'kesehatan', 'mengalami']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['daerah', 'target', 'meningkatkan', 'puskesmas', 'angka', 'data', 'semoga', 'program', 'memiliki', 'kesehatan', 'sehat', 'indonesia', 'penyebab', 'laporan', 'terkait', 'dokter', 'pemerintah']</t>
+          <t>['pemerintah', 'sehat', 'indonesia', 'program', 'target', 'memiliki', 'meningkatkan', 'angka', 'data', 'daerah', 'puskesmas', 'semoga', 'terkait', 'dokter', 'kesehatan', 'penyebab', 'laporan']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rumah', 'acara', 'rumah_sakit', 'pemerintah', 'bandung', 'meningkatkan', 'indonesia', 'layanan', 'provinsi', 'pelayanan', 'kerja', 'daerah', 'program', 'mengaku', 'langsung', 'bpjs_kesehatan', 'jenis', 'kesehatan', 'terkait', 'jawa', 'pendidikan']</t>
+          <t>['indonesia', 'program', 'jenis', 'langsung', 'layanan', 'bandung', 'kerja', 'bpjs_kesehatan', 'provinsi', 'pendidikan', 'terkait', 'daerah', 'jawa', 'rumah_sakit', 'rumah', 'meningkatkan', 'pelayanan', 'pemerintah', 'mengaku', 'kesehatan', 'acara']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sistem', 'meningkatkan', 'puskesmas', 'data', 'menyebabkan', 'indonesia', 'layanan', 'kesehatan', 'terkait', 'pemerintah']</t>
+          <t>['pemerintah', 'menyebabkan', 'layanan', 'indonesia', 'data', 'meningkatkan', 'sistem', 'puskesmas', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['penyakit', 'daerah', 'rumah_sakit', 'ribu', 'semoga', 'perempuan', 'bantuan', 'memiliki', 'warga', 'sehat', 'kondisi', 'sakit', 'mengaku', 'terkait', 'dokter', 'keluarga']</t>
+          <t>['rumah_sakit', 'sehat', 'mengaku', 'warga', 'penyakit', 'keluarga', 'memiliki', 'sakit', 'ribu', 'semoga', 'terkait', 'kondisi', 'dokter', 'daerah', 'bantuan', 'perempuan']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'rumah_sakit', 'petugas', 'kali', 'darah', 'polres', 'kepala', 'sakit', 'laporan', 'pelaku', 'polisi', 'warga']</t>
+          <t>['rumah_sakit', 'rumah', 'warga', 'kali', 'polres', 'kepala', 'polisi', 'darah', 'korban', 'pelaku', 'petugas', 'langsung', 'sakit', 'laporan']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['bandung', 'ribu', 'petugas', 'kali', 'polres', 'pelaku', 'polisi', 'kesehatan', 'tersangka', 'tim', 'obat']</t>
+          <t>['kali', 'bandung', 'polres', 'tim', 'polisi', 'pelaku', 'petugas', 'tersangka', 'kesehatan', 'ribu', 'obat']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['pelayanan', 'langsung', 'layanan', 'selamat', 'semoga', 'kali', 'memiliki', 'jalan', 'negara', 'kesehatan', 'surat', 'bali', 'malam', 'kendaraan', 'warga']</t>
+          <t>['layanan', 'warga', 'bali', 'kali', 'memiliki', 'langsung', 'kendaraan', 'pelayanan', 'jalan', 'semoga', 'malam', 'surat', 'kesehatan', 'selamat', 'negara']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['penyakit', 'sistem', 'meningkatkan', 'mencegah', 'gejala', 'kulit', 'memiliki', 'pasien', 'makanan', 'membantu', 'ditemukan', 'air', 'mengurangi', 'mengandung', 'obat', 'kandungan']</t>
+          <t>['membantu', 'makanan', 'mengurangi', 'air', 'mengandung', 'ditemukan', 'penyakit', 'pasien', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'sistem', 'kulit', 'gejala', 'obat']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['penyakit', 'rumah', 'usia', 'meningkatkan', 'semoga', 'jenis', 'tubuh', 'sehat', 'memiliki', 'kegiatan', 'makanan', 'jalan', 'dunia', 'penyebab', 'membantu', 'mengurangi', 'kesehatan', 'keluarga']</t>
+          <t>['membantu', 'makanan', 'mengurangi', 'sehat', 'rumah', 'kegiatan', 'penyakit', 'keluarga', 'memiliki', 'meningkatkan', 'usia', 'jenis', 'semoga', 'tubuh', 'jalan', 'dunia', 'kesehatan', 'penyebab']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['sehat', 'kondisi', 'dunia', 'air', 'jantung', 'diabetes', 'penyakit', 'kali', 'indonesia', 'dokter', 'tubuh', 'ginjal', 'angka', 'data', 'darah', 'makanan', 'kesehatan', 'terkait', 'obat']</t>
+          <t>['indonesia', 'darah', 'angka', 'air', 'data', 'sehat', 'terkait', 'dokter', 'obat', 'kali', 'diabetes', 'penyakit', 'ginjal', 'tubuh', 'dunia', 'kondisi', 'makanan', 'jantung', 'kesehatan']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['pelayanan', 'hukum', 'daerah', 'masuk', 'persen', 'rumah_sakit', 'data', 'terkait', 'pasien', 'polres', 'kepala', 'covid', 'kesehatan', 'polisi', 'provinsi', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'polres', 'covid', 'kepala', 'polisi', 'persen', 'data', 'pasien', 'provinsi', 'daerah', 'pelayanan', 'terkait', 'kesehatan', 'hukum', 'masuk']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['mencegah', 'sehat', 'kondisi', 'malam', 'jantung', 'mengalami', 'diabetes', 'penyakit', 'meningkatkan', 'manfaat', 'tubuh', 'kegiatan', 'darah', 'kanker', 'penyebab', 'memiliki', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'pendidikan']</t>
+          <t>['kanker', 'darah', 'memiliki', 'manfaat', 'membantu', 'mencegah', 'sehat', 'pendidikan', 'penyebab', 'mengurangi', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'kondisi', 'mengalami', 'kegiatan', 'jantung', 'sakit', 'malam', 'kesehatan']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['infeksi', 'masuk', 'mencegah', 'gejala', 'sehat', 'kondisi', 'gempa', 'mengalami', 'penyakit', 'korban', 'puskesmas', 'tubuh', 'virus', 'makanan', 'akut', 'warga', 'cianjur', 'kulit', 'sakit', 'kesehatan', 'jawa']</t>
+          <t>['virus', 'korban', 'mencegah', 'sehat', 'kulit', 'gejala', 'jawa', 'masuk', 'infeksi', 'penyakit', 'tubuh', 'gempa', 'kondisi', 'mengalami', 'makanan', 'cianjur', 'warga', 'puskesmas', 'sakit', 'akut', 'kesehatan']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['mencegah', 'korban', 'buah', 'petugas', 'kondisi', 'polisi', 'kesehatan', 'bali', 'jawa', 'tim', 'mengalami', 'warga']</t>
+          <t>['bali', 'warga', 'mengalami', 'tim', 'polisi', 'korban', 'mencegah', 'petugas', 'kondisi', 'kesehatan', 'jawa', 'buah']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['virus', 'persen', 'rumah_sakit', 'data', 'angka', 'corona', 'pasien', 'indonesia', 'covid', 'jawa', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'angka', 'data', 'persen', 'jawa']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['buah', 'surat', 'kepala', 'keluarga']</t>
+          <t>['kepala', 'keluarga', 'surat', 'buah']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kerja', 'daerah', 'korban', 'rumah_sakit', 'ribu', 'kali', 'mengaku', 'pasien', 'jalan', 'kepala', 'pelaku', 'polisi', 'kesehatan', 'mengalami']</t>
+          <t>['rumah_sakit', 'mengaku', 'kali', 'kepala', 'polisi', 'korban', 'kerja', 'pasien', 'pelaku', 'daerah', 'jalan', 'kesehatan', 'ribu', 'mengalami']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['sistem', 'masuk', 'infeksi', 'mencegah', 'hewan', 'menyebabkan', 'kondisi', 'kepala', 'covid', 'jantung', 'mengalami', 'kandungan', 'penyakit', 'meningkatkan', 'manfaat', 'dokter', 'tubuh', 'virus', 'ginjal', 'peserta', 'buah', 'darah', 'makanan', 'kanker', 'penyebab', 'mengandung', 'usia', 'jenis', 'perempuan', 'memiliki', 'kulit', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
+          <t>['mengandung', 'virus', 'kanker', 'kepala', 'darah', 'memiliki', 'jenis', 'manfaat', 'peserta', 'perempuan', 'membantu', 'mencegah', 'usia', 'kandungan', 'dokter', 'kulit', 'penyebab', 'masuk', 'obat', 'mengurangi', 'menyebabkan', 'infeksi', 'penyakit', 'covid', 'ginjal', 'meningkatkan', 'tubuh', 'kondisi', 'mengalami', 'makanan', 'jantung', 'sistem', 'sakit', 'hewan', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rumah', 'mencegah', 'acara', 'dunia', 'kepala', 'tanaman', 'kandungan', 'penyakit', 'meningkatkan', 'manfaat', 'sekolah', 'kali', 'indonesia', 'tubuh', 'penyebab', 'mengandung', 'tim', 'warga', 'semoga', 'kulit', 'memiliki', 'sakit', 'membantu', 'kesehatan', 'bali', 'jawa', 'obat']</t>
+          <t>['mengandung', 'bali', 'indonesia', 'kepala', 'memiliki', 'sekolah', 'manfaat', 'semoga', 'membantu', 'mencegah', 'kandungan', 'tanaman', 'kulit', 'jawa', 'penyebab', 'obat', 'tim', 'rumah', 'kali', 'penyakit', 'meningkatkan', 'tubuh', 'dunia', 'warga', 'sakit', 'kesehatan', 'acara']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'pelayanan', 'usia', 'puskesmas', 'rumah_sakit', 'protokol_kesehatan', 'aturan', 'sehat', 'memiliki', 'kesehatan', 'kondisi', 'membantu', 'layanan', 'pelaku', 'vaksin', 'kebijakan', 'dokter', 'pemerintah']</t>
+          <t>['rumah_sakit', 'membantu', 'pemerintah', 'aturan', 'protokol_kesehatan', 'layanan', 'vaksinasi', 'memiliki', 'usia', 'pelaku', 'vaksin', 'puskesmas', 'pelayanan', 'sehat', 'kebijakan', 'kondisi', 'dokter', 'kesehatan']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'kerja', 'langsung', 'meningkatkan', 'mencegah', 'semoga', 'sehat', 'bantuan', 'memiliki', 'menyebabkan', 'kondisi', 'penyebab', 'membantu', 'negara', 'kesehatan', 'malam', 'keluarga']</t>
+          <t>['terima_kasih', 'membantu', 'sehat', 'menyebabkan', 'keluarga', 'mencegah', 'memiliki', 'meningkatkan', 'kerja', 'langsung', 'semoga', 'malam', 'kondisi', 'kesehatan', 'penyebab', 'bantuan', 'negara']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['hukum', 'korban', 'sekolah', 'petugas', 'kali', 'jalan', 'kondisi', 'polisi', 'ditemukan', 'kesehatan', 'terkait', 'tersangka', 'mengalami']</t>
+          <t>['tersangka', 'ditemukan', 'kali', 'polisi', 'korban', 'sekolah', 'petugas', 'jalan', 'terkait', 'kondisi', 'kesehatan', 'hukum', 'mengalami']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['pelayanan', 'hiv', 'puskesmas', 'mencegah', 'petugas', 'sehat', 'kegiatan', 'darah', 'digelar', 'indonesia', 'kondisi', 'kepala', 'layanan', 'kesehatan', 'kandungan']</t>
+          <t>['hiv', 'layanan', 'kegiatan', 'indonesia', 'kepala', 'darah', 'mencegah', 'digelar', 'kandungan', 'petugas', 'puskesmas', 'pelayanan', 'sehat', 'kondisi', 'kesehatan']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['data', 'aturan', 'memiliki', 'indonesia', 'kelompok', 'kesehatan', 'terkait']</t>
+          <t>['aturan', 'indonesia', 'kelompok', 'data', 'memiliki', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['virus', 'bandung', 'memiliki', 'kepala', 'pelaku', 'polisi', 'kelompok', 'jawa', 'tim']</t>
+          <t>['virus', 'bandung', 'kepala', 'polisi', 'kelompok', 'memiliki', 'pelaku', 'jawa', 'tim']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['cianjur', 'korban', 'acara', 'protokol_kesehatan', 'kegiatan', 'program', 'kali', 'digelar', 'jakarta', 'jalan', 'indonesia', 'kesehatan', 'terkait', 'bencana']</t>
+          <t>['cianjur', 'protokol_kesehatan', 'kali', 'kegiatan', 'indonesia', 'program', 'korban', 'bencana', 'digelar', 'jalan', 'terkait', 'jakarta', 'kesehatan', 'acara']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['kerja', 'hewan', 'kesehatan', 'kondisi', 'kepala', 'laporan', 'jakarta', 'kebijakan', 'dokter']</t>
+          <t>['kondisi', 'kepala', 'kerja', 'hewan', 'kebijakan', 'jakarta', 'dokter', 'kesehatan', 'laporan']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['penyakit', 'kali', 'bantuan', 'mengaku', 'jalan', 'sakit', 'kesehatan', 'bali', 'obat', 'kandungan']</t>
+          <t>['mengaku', 'bali', 'kali', 'penyakit', 'kandungan', 'sakit', 'jalan', 'kesehatan', 'bantuan', 'obat']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['langsung', 'korban', 'petugas', 'bantuan', 'warga', 'kondisi', 'polisi', 'ditemukan', 'kesehatan', 'tubuh']</t>
+          <t>['ditemukan', 'warga', 'polisi', 'korban', 'petugas', 'langsung', 'tubuh', 'kondisi', 'kesehatan', 'bantuan']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['daerah', 'usia', 'peserta', 'digelar', 'mengaku', 'jalan', 'kesehatan', 'pandemi', 'dokter', 'warga']</t>
+          <t>['mengaku', 'warga', 'usia', 'digelar', 'pandemi', 'daerah', 'jalan', 'peserta', 'dokter', 'kesehatan']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['penyakit', 'rumah_sakit', 'petugas', 'program', 'memiliki', 'menyebabkan', 'mengalami', 'penyebab', 'sakit', 'puskesmas', 'jakarta', 'dokter', 'warga']</t>
+          <t>['rumah_sakit', 'menyebabkan', 'warga', 'penyakit', 'program', 'memiliki', 'petugas', 'puskesmas', 'sakit', 'jakarta', 'dokter', 'penyebab', 'mengalami']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['korban', 'rumah_sakit', 'kali', 'kesehatan', 'sakit', 'laporan', 'jakarta', 'dokter']</t>
+          <t>['rumah_sakit', 'kali', 'korban', 'sakit', 'jakarta', 'dokter', 'kesehatan', 'laporan']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['kerja', 'persen', 'rumah_sakit', 'kegiatan', 'program', 'kali', 'digelar', 'jakarta', 'indonesia', 'covid', 'membantu', 'negara', 'kesehatan', 'provinsi', 'pandemi', 'kebijakan', 'bencana', 'pemerintah']</t>
+          <t>['rumah_sakit', 'membantu', 'pemerintah', 'kali', 'kegiatan', 'indonesia', 'program', 'covid', 'kerja', 'provinsi', 'pandemi', 'digelar', 'persen', 'kebijakan', 'jakarta', 'kesehatan', 'bencana', 'negara']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['hukum', 'penyakit', 'sistem', 'usia', 'peserta', 'manfaat', 'data', 'kali', 'kesehatan', 'kondisi', 'kepala', 'membantu', 'ditemukan', 'laporan', 'kelompok', 'tim', 'keluarga']</t>
+          <t>['membantu', 'ditemukan', 'kali', 'penyakit', 'tim', 'kepala', 'keluarga', 'kelompok', 'data', 'usia', 'sistem', 'manfaat', 'kondisi', 'kesehatan', 'hukum', 'laporan', 'peserta']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['meningkatkan', 'kulit', 'menyebabkan', 'kondisi', 'sakit', 'kesehatan', 'mengalami', 'tubuh']</t>
+          <t>['menyebabkan', 'meningkatkan', 'kulit', 'tubuh', 'sakit', 'kondisi', 'kesehatan', 'mengalami']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['pendidikan', 'daerah', 'persen', 'target', 'acara', 'manfaat', 'memiliki', 'kondisi', 'negara', 'kesehatan', 'jakarta', 'mengalami', 'pemerintah']</t>
+          <t>['pemerintah', 'kondisi', 'mengalami', 'target', 'persen', 'memiliki', 'manfaat', 'daerah', 'pendidikan', 'jakarta', 'kesehatan', 'acara', 'negara']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['doa', 'rumah_sakit', 'selamat', 'perempuan', 'pasien', 'kesehatan', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'pasien', 'doa', 'kesehatan', 'selamat', 'perempuan']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'jawa', 'daerah', 'sistem', 'kegiatan', 'digelar', 'indonesia', 'kesehatan', 'surat', 'jakarta', 'malam', 'tim']</t>
+          <t>['terima_kasih', 'kegiatan', 'indonesia', 'kesehatan', 'digelar', 'sistem', 'malam', 'jakarta', 'surat', 'daerah', 'jawa', 'tim']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'doa', 'sistem', 'sehat', 'dunia', 'meningkatkan', 'manfaat', 'tubuh', 'kerja', 'relawan', 'langsung', 'keluarga', 'semoga', 'bantuan', 'memiliki', 'sakit', 'membantu', 'mengurangi', 'kesehatan']</t>
+          <t>['terima_kasih', 'memiliki', 'manfaat', 'langsung', 'semoga', 'membantu', 'kerja', 'sehat', 'relawan', 'mengurangi', 'meningkatkan', 'tubuh', 'dunia', 'doa', 'keluarga', 'sistem', 'sakit', 'kesehatan', 'bantuan']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['virus', 'hiv', 'meningkatkan', 'gejala', 'sehat', 'kondisi', 'kepala', 'sakit', 'dunia', 'kesehatan', 'obat', 'tubuh']</t>
+          <t>['hiv', 'sehat', 'virus', 'kepala', 'meningkatkan', 'tubuh', 'sakit', 'dunia', 'kondisi', 'kesehatan', 'gejala', 'obat']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'virus', 'langsung', 'rumah', 'usia', 'korban', 'vaksin', 'terkait', 'hewan', 'kesehatan', 'kepala', 'laporan', 'bali', 'mengalami', 'warga']</t>
+          <t>['virus', 'bali', 'warga', 'rumah', 'kepala', 'vaksinasi', 'korban', 'usia', 'langsung', 'hewan', 'terkait', 'vaksin', 'kesehatan', 'laporan', 'mengalami']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['langsung', 'rumah', 'korban', 'perempuan', 'kali', 'mengaku', 'kondisi', 'polres', 'ditemukan', 'air', 'warga']</t>
+          <t>['mengaku', 'air', 'rumah', 'warga', 'ditemukan', 'polres', 'kali', 'korban', 'langsung', 'kondisi', 'perempuan']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ditemukan', 'manfaat', 'jenis', 'sehat', 'memiliki', 'mengurangi', 'mengandung', 'kesehatan']</t>
+          <t>['mengurangi', 'mengandung', 'ditemukan', 'memiliki', 'jenis', 'manfaat', 'sehat', 'kesehatan']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['jokowi', 'rumah_sakit', 'sehat', 'kondisi', 'kepala', 'kesehatan', 'dokter']</t>
+          <t>['rumah_sakit', 'jokowi', 'kepala', 'sehat', 'kondisi', 'dokter', 'kesehatan']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['kerja', 'virus', 'penyakit', 'gejala', 'memiliki', 'dunia', 'sakit', 'negara', 'tim', 'mengalami', 'tubuh']</t>
+          <t>['virus', 'mengalami', 'penyakit', 'tim', 'memiliki', 'kerja', 'tubuh', 'sakit', 'dunia', 'gejala', 'negara']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['pelayanan', 'rumah', 'petugas', 'memiliki', 'warga', 'indonesia', 'kondisi', 'kepala', 'negara', 'kesehatan', 'terkait', 'tersangka', 'keluarga']</t>
+          <t>['tersangka', 'rumah', 'warga', 'indonesia', 'kepala', 'keluarga', 'memiliki', 'petugas', 'pelayanan', 'terkait', 'kondisi', 'kesehatan', 'negara']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['sistem', 'infeksi', 'mencegah', 'menyebabkan', 'kondisi', 'air', 'tanaman', 'jantung', 'mengalami', 'kandungan', 'diabetes', 'penyakit', 'meningkatkan', 'manfaat', 'indonesia', 'negara', 'dokter', 'tubuh', 'pelayanan', 'kerja', 'virus', 'buah', 'darah', 'makanan', 'kanker', 'mengandung', 'usia', 'jenis', 'semoga', 'kulit', 'memiliki', 'pasien', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
+          <t>['mengandung', 'virus', 'indonesia', 'kanker', 'darah', 'memiliki', 'jenis', 'manfaat', 'semoga', 'negara', 'membantu', 'air', 'mencegah', 'usia', 'kerja', 'kandungan', 'tanaman', 'dokter', 'kulit', 'obat', 'mengurangi', 'menyebabkan', 'infeksi', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'pelayanan', 'kondisi', 'mengalami', 'makanan', 'jantung', 'pasien', 'sistem', 'sakit', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['penyakit', 'infeksi', 'kulit', 'dunia', 'covid', 'negara', 'pandemi', 'keluarga']</t>
+          <t>['infeksi', 'penyakit', 'covid', 'keluarga', 'pandemi', 'dunia', 'kulit', 'negara']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['diabetes', 'penyakit', 'virus', 'ginjal', 'infeksi', 'gejala', 'memiliki', 'kesehatan', 'menyebabkan', 'obat', 'kepala', 'sakit', 'air', 'terkait', 'jantung', 'dokter', 'tubuh']</t>
+          <t>['menyebabkan', 'air', 'virus', 'infeksi', 'diabetes', 'penyakit', 'jantung', 'kepala', 'ginjal', 'memiliki', 'tubuh', 'sakit', 'terkait', 'dokter', 'kesehatan', 'gejala', 'obat']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pelayanan', 'gereja', 'kegiatan', 'polres', 'covid', 'kesehatan', 'terkait', 'malam', 'warga']</t>
+          <t>['warga', 'kegiatan', 'polres', 'covid', 'pelayanan', 'gereja', 'terkait', 'malam', 'kesehatan']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['persen', 'manfaat', 'jenis', 'kali', 'memiliki', 'kesehatan', 'menyebabkan', 'makanan', 'mengandung', 'air', 'jantung', 'tubuh']</t>
+          <t>['makanan', 'menyebabkan', 'air', 'mengandung', 'kali', 'jantung', 'memiliki', 'jenis', 'manfaat', 'tubuh', 'persen', 'kesehatan']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['infeksi', 'rumah_sakit', 'ribu', 'menyebabkan', 'covid', 'laporan', 'pemerintah', 'persen', 'corona', 'negara', 'provinsi', 'pandemi', 'virus', 'angka', 'darah', 'akut', 'pasien', 'sakit', 'mengurangi', 'kesehatan', 'obat']</t>
+          <t>['virus', 'darah', 'angka', 'pandemi', 'persen', 'negara', 'provinsi', 'obat', 'rumah_sakit', 'mengurangi', 'menyebabkan', 'infeksi', 'covid', 'laporan', 'ribu', 'pemerintah', 'corona', 'pasien', 'sakit', 'akut', 'kesehatan']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['pelayanan', 'kerja', 'daerah', 'bpjs_kesehatan', 'rumah_sakit', 'memiliki', 'mengaku', 'jalan', 'kondisi', 'kepala', 'layanan', 'kesehatan', 'jawa', 'dokter', 'warga']</t>
+          <t>['rumah_sakit', 'mengaku', 'layanan', 'warga', 'kepala', 'memiliki', 'bpjs_kesehatan', 'kerja', 'daerah', 'pelayanan', 'jalan', 'kondisi', 'dokter', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['perusahaan', 'tersangka', 'jakarta', 'indonesia', 'negara', 'kesehatan', 'terkait', 'jawa']</t>
+          <t>['perusahaan', 'tersangka', 'indonesia', 'terkait', 'jakarta', 'kesehatan', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['penyakit', 'meningkatkan', 'gejala', 'sehat', 'menyebabkan', 'tanaman']</t>
+          <t>['menyebabkan', 'penyakit', 'meningkatkan', 'tanaman', 'sehat', 'gejala']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
+          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rumah', 'acara', 'kondisi', 'dunia', 'laporan', 'air', 'gempa', 'malam', 'mengalami', 'bandung', 'meningkatkan', 'korban', 'kelompok', 'negara', 'jakarta', 'dokter', 'bencana', 'kerja', 'kegiatan', 'program', 'makanan', 'tim', 'langsung', 'warga', 'pengungsi', 'cianjur', 'perempuan', 'bantuan', 'membantu', 'kesehatan', 'terkait']</t>
+          <t>['program', 'langsung', 'bencana', 'perempuan', 'membantu', 'negara', 'air', 'bandung', 'korban', 'kerja', 'terkait', 'jakarta', 'dokter', 'tim', 'rumah', 'meningkatkan', 'dunia', 'gempa', 'kondisi', 'laporan', 'mengalami', 'makanan', 'cianjur', 'warga', 'kegiatan', 'kelompok', 'pengungsi', 'malam', 'kesehatan', 'acara', 'bantuan']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'pelayanan', 'daerah', 'bandung', 'usia', 'puskesmas', 'aturan', 'ribu', 'memiliki', 'jakarta', 'kepala', 'layanan', 'kesehatan', 'vaksin', 'mengalami']</t>
+          <t>['aturan', 'layanan', 'bandung', 'kepala', 'vaksinasi', 'memiliki', 'usia', 'vaksin', 'daerah', 'puskesmas', 'pelayanan', 'jakarta', 'kesehatan', 'ribu', 'mengalami']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['tanaman', 'langsung', 'penyakit', 'daerah', 'manfaat', 'jenis', 'memiliki', 'darah', 'kondisi', 'kesehatan', 'obat', 'tubuh']</t>
+          <t>['penyakit', 'darah', 'memiliki', 'jenis', 'manfaat', 'daerah', 'tanaman', 'tubuh', 'langsung', 'kondisi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['pelayanan', 'meningkatkan', 'peserta', 'manfaat', 'petugas', 'program', 'terkait', 'digelar', 'indonesia', 'kepala', 'mengurangi', 'layanan', 'kesehatan', 'provinsi', 'jawa', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'mengurangi', 'layanan', 'indonesia', 'program', 'kepala', 'meningkatkan', 'provinsi', 'digelar', 'manfaat', 'petugas', 'pelayanan', 'terkait', 'kebijakan', 'peserta', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['hukum', 'daerah', 'persen', 'rumah_sakit', 'pasien', 'kepala', 'covid', 'terkait']</t>
+          <t>['rumah_sakit', 'covid', 'kepala', 'pasien', 'persen', 'terkait', 'daerah', 'hukum']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['penyakit', 'terkait', 'sehat', 'memiliki', 'kesehatan', 'makanan', 'jalan', 'kepala', 'air', 'bali', 'langsung']</t>
+          <t>['makanan', 'air', 'bali', 'penyakit', 'kepala', 'memiliki', 'langsung', 'jalan', 'sehat', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['penyakit', 'sistem', 'infeksi', 'gejala', 'kulit', 'menyebabkan', 'darah', 'kondisi', 'jantung', 'mengalami', 'tubuh']</t>
+          <t>['menyebabkan', 'infeksi', 'penyakit', 'jantung', 'darah', 'sistem', 'tubuh', 'kondisi', 'kulit', 'gejala', 'mengalami']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['kerja', 'cianjur', 'korban', 'acara', 'protokol_kesehatan', 'kegiatan', 'digelar', 'jakarta', 'indonesia', 'kesehatan', 'bencana', 'langsung']</t>
+          <t>['cianjur', 'protokol_kesehatan', 'kegiatan', 'indonesia', 'korban', 'kerja', 'bencana', 'digelar', 'langsung', 'jakarta', 'kesehatan', 'acara']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['hukum', 'daerah', 'acara', 'petugas', 'perempuan', 'semoga', 'sakit', 'provinsi', 'tersangka']</t>
+          <t>['hukum', 'provinsi', 'petugas', 'sakit', 'semoga', 'tersangka', 'daerah', 'acara', 'perempuan']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'rumah', 'ribu', 'petugas', 'hewan', 'menyebabkan', 'kepala', 'covid', 'air', 'vaksin', 'kebijakan', 'penyakit', 'persen', 'puskesmas', 'provinsi', 'pandemi', 'tubuh', 'angka', 'kegiatan', 'penyebab', 'semoga', 'kesehatan', 'bali']</t>
+          <t>['bali', 'kepala', 'angka', 'pandemi', 'semoga', 'persen', 'kebijakan', 'vaksin', 'air', 'provinsi', 'penyebab', 'menyebabkan', 'rumah', 'penyakit', 'covid', 'petugas', 'tubuh', 'ribu', 'kegiatan', 'vaksinasi', 'puskesmas', 'hewan', 'kesehatan']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['virus', 'data', 'corona', 'pasien', 'indonesia', 'covid', 'provinsi', 'pemerintah']</t>
+          <t>['pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'data', 'provinsi']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['hukum', 'sehat', 'jalan', 'indonesia', 'kesehatan', 'jakarta', 'mengalami']</t>
+          <t>['indonesia', 'jalan', 'sehat', 'jakarta', 'kesehatan', 'hukum', 'mengalami']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['masuk', 'bandung', 'acara', 'protokol_kesehatan', 'kali', 'kesehatan', 'indonesia', 'covid', 'air', 'malam', 'pandemi']</t>
+          <t>['air', 'protokol_kesehatan', 'kali', 'bandung', 'indonesia', 'covid', 'pandemi', 'malam', 'kesehatan', 'acara', 'masuk']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['hukum', 'langsung', 'masuk', 'target', 'bpjs_kesehatan', 'program', 'digelar', 'warga', 'indonesia', 'negara', 'kesehatan', 'jakarta', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'warga', 'indonesia', 'program', 'target', 'masuk', 'bpjs_kesehatan', 'digelar', 'langsung', 'kebijakan', 'jakarta', 'kesehatan', 'hukum', 'negara']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['pelayanan', 'protokol_kesehatan', 'ribu', 'petugas', 'jalan', 'kondisi', 'mengalami', 'kesehatan', 'jawa', 'pemerintah', 'kendaraan', 'tubuh']</t>
+          <t>['pemerintah', 'protokol_kesehatan', 'petugas', 'tubuh', 'kendaraan', 'jalan', 'pelayanan', 'kondisi', 'kesehatan', 'jawa', 'ribu', 'mengalami']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
+          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['tanaman', 'rumah', 'masuk', 'laporan', 'hewan', 'memiliki', 'jalan', 'kondisi', 'kepala', 'air', 'kendaraan', 'warga']</t>
+          <t>['air', 'rumah', 'warga', 'kepala', 'memiliki', 'tanaman', 'kendaraan', 'jalan', 'hewan', 'kondisi', 'masuk', 'laporan']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'infeksi', 'masuk', 'persen', 'corona', 'kegiatan', 'memiliki', 'warga', 'indonesia', 'dunia', 'covid', 'pandemi', 'kesehatan', 'terkait', 'pemerintah', 'kebijakan', 'tubuh']</t>
+          <t>['pemerintah', 'infeksi', 'indonesia', 'kegiatan', 'corona', 'covid', 'warga', 'vaksinasi', 'memiliki', 'persen', 'pandemi', 'tubuh', 'dunia', 'terkait', 'kebijakan', 'kesehatan', 'masuk']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'pelayanan', 'meningkatkan', 'protokol_kesehatan', 'kegiatan', 'memiliki', 'digelar', 'jakarta', 'indonesia', 'kepala', 'covid', 'negara', 'kesehatan', 'terkait']</t>
+          <t>['protokol_kesehatan', 'kegiatan', 'indonesia', 'covid', 'kepala', 'vaksinasi', 'memiliki', 'meningkatkan', 'digelar', 'pelayanan', 'terkait', 'jakarta', 'kesehatan', 'negara']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['hukum', 'daerah', 'puskesmas', 'ribu', 'bantuan', 'jakarta', 'jalan', 'kondisi', 'negara', 'kesehatan', 'provinsi', 'malam', 'mengalami']</t>
+          <t>['kondisi', 'mengalami', 'provinsi', 'daerah', 'puskesmas', 'ribu', 'jalan', 'malam', 'jakarta', 'kesehatan', 'hukum', 'bantuan', 'negara']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['pasien', 'kondisi', 'kepala', 'covid', 'surat', 'bencana']</t>
+          <t>['covid', 'kepala', 'pasien', 'kondisi', 'surat', 'bencana']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['pelayanan', 'perusahaan', 'sistem', 'peserta', 'bpjs_kesehatan', 'manfaat', 'data', 'program', 'perempuan', 'dunia', 'sakit', 'membantu', 'layanan', 'kesehatan', 'surat', 'terkait']</t>
+          <t>['membantu', 'perusahaan', 'layanan', 'program', 'data', 'bpjs_kesehatan', 'sistem', 'manfaat', 'sakit', 'pelayanan', 'dunia', 'terkait', 'peserta', 'surat', 'kesehatan', 'perempuan']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['tanaman', 'perusahaan', 'rumah', 'ditemukan', 'buah', 'jenis', 'memiliki', 'dunia', 'sakit', 'negara', 'kesehatan', 'malam']</t>
+          <t>['rumah', 'ditemukan', 'memiliki', 'jenis', 'tanaman', 'sakit', 'negara', 'dunia', 'perusahaan', 'malam', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['pelayanan', 'rumah', 'aturan', 'jalan', 'kepala', 'kesehatan', 'pemerintah']</t>
+          <t>['pemerintah', 'aturan', 'rumah', 'kepala', 'pelayanan', 'jalan', 'kesehatan']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'langsung', 'target', 'rumah_sakit', 'kesehatan', 'indonesia', 'dunia', 'ditemukan', 'laporan', 'vaksin', 'provinsi', 'tim', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'ditemukan', 'indonesia', 'target', 'vaksinasi', 'provinsi', 'langsung', 'dunia', 'vaksin', 'kesehatan', 'laporan', 'tim']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['sistem', 'infeksi', 'persen', 'gejala', 'menyebabkan', 'kondisi', 'kepala', 'sakit', 'ditemukan', 'air', 'penyebab', 'mengalami', 'tubuh']</t>
+          <t>['menyebabkan', 'air', 'ditemukan', 'infeksi', 'kepala', 'sistem', 'tubuh', 'sakit', 'persen', 'penyebab', 'kondisi', 'gejala', 'mengalami']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['mengaku', 'kerja', 'jokowi']</t>
+          <t>['jokowi', 'mengaku', 'kerja']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'bantuan', 'pasien', 'kondisi', 'polres', 'kepala', 'polisi', 'kesehatan', 'malam', 'langsung']</t>
+          <t>['rumah_sakit', 'polres', 'kepala', 'pasien', 'polisi', 'langsung', 'malam', 'kondisi', 'kesehatan', 'bantuan']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'rumah', 'rumah_sakit', 'sehat', 'pemerintah', 'persen', 'meningkatkan', 'negara', 'puskesmas', 'pelayanan', 'kerja', 'daerah', 'peserta', 'data', 'kegiatan', 'program', 'langsung', 'hukum', 'warga', 'bpjs_kesehatan', 'memiliki', 'kesehatan', 'terkait']</t>
+          <t>['terima_kasih', 'program', 'memiliki', 'langsung', 'persen', 'peserta', 'negara', 'data', 'bpjs_kesehatan', 'kerja', 'sehat', 'terkait', 'daerah', 'hukum', 'rumah_sakit', 'rumah', 'meningkatkan', 'pelayanan', 'pemerintah', 'warga', 'kegiatan', 'puskesmas', 'kesehatan']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'penyakit', 'virus', 'infeksi', 'usia', 'vaksin', 'jenis', 'kondisi', 'negara', 'kesehatan', 'mengandung', 'obat']</t>
+          <t>['mengandung', 'virus', 'infeksi', 'penyakit', 'vaksinasi', 'usia', 'jenis', 'vaksin', 'negara', 'kondisi', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['pelayanan', 'persen', 'posko', 'data', 'ribu', 'kegiatan', 'kali', 'membantu', 'kesehatan', 'terkait']</t>
+          <t>['membantu', 'kali', 'kegiatan', 'posko', 'persen', 'data', 'pelayanan', 'terkait', 'kesehatan', 'ribu']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['daerah', 'manfaat', 'data', 'sehat', 'menyebabkan', 'kali', 'makanan', 'dunia', 'membantu', 'ditemukan', 'kesehatan', 'negara', 'kelompok', 'tim', 'kebijakan', 'mengalami']</t>
+          <t>['membantu', 'makanan', 'sehat', 'menyebabkan', 'ditemukan', 'kali', 'mengalami', 'tim', 'kelompok', 'data', 'kesehatan', 'manfaat', 'dunia', 'kebijakan', 'daerah', 'negara']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['pelayanan', 'persen', 'meningkatkan', 'peserta', 'manfaat', 'petugas', 'program', 'jakarta', 'indonesia', 'kepala', 'mengurangi', 'layanan', 'kesehatan', 'terkait', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'mengurangi', 'layanan', 'indonesia', 'program', 'kepala', 'persen', 'meningkatkan', 'manfaat', 'petugas', 'pelayanan', 'terkait', 'kebijakan', 'jakarta', 'kesehatan', 'peserta']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['penyakit', 'sistem', 'masuk', 'kandungan', 'meningkatkan', 'manfaat', 'sehat', 'memiliki', 'darah', 'kesehatan', 'kali', 'makanan', 'membantu', 'mengurangi', 'air', 'tim', 'jantung', 'tubuh']</t>
+          <t>['membantu', 'makanan', 'mengurangi', 'air', 'kali', 'penyakit', 'jantung', 'darah', 'memiliki', 'meningkatkan', 'kandungan', 'manfaat', 'sistem', 'tubuh', 'sehat', 'kesehatan', 'masuk', 'tim']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['hukum', 'masuk', 'puskesmas', 'korban', 'rumah_sakit', 'vaksin', 'hewan', 'warga', 'kondisi', 'kesehatan', 'surat', 'bali', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'bali', 'warga', 'korban', 'vaksin', 'puskesmas', 'hewan', 'kondisi', 'surat', 'kesehatan', 'hukum', 'masuk']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['korban', 'rumah_sakit', 'digelar', 'mengalami', 'sakit', 'surat', 'dokter']</t>
+          <t>['rumah_sakit', 'korban', 'digelar', 'sakit', 'surat', 'dokter', 'mengalami']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['gereja', 'protokol_kesehatan', 'kali', 'memiliki', 'mengaku', 'membantu', 'kesehatan']</t>
+          <t>['membantu', 'mengaku', 'protokol_kesehatan', 'kali', 'memiliki', 'gereja', 'kesehatan']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['rumah', 'pengungsi', 'cianjur', 'korban', 'sekolah', 'ribu', 'perempuan', 'bantuan', 'warga', 'indonesia', 'kepala', 'gempa', 'kelompok', 'kesehatan', 'tim', 'keluarga']</t>
+          <t>['cianjur', 'rumah', 'warga', 'indonesia', 'tim', 'kepala', 'keluarga', 'korban', 'kelompok', 'pengungsi', 'sekolah', 'ribu', 'gempa', 'kesehatan', 'bantuan', 'perempuan']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['kerja', 'daerah', 'persen', 'bandung', 'mencegah', 'acara', 'angka', 'semoga', 'program', 'digelar', 'indonesia', 'kepala', 'kelompok', 'kesehatan', 'jawa', 'tim', 'langsung']</t>
+          <t>['bandung', 'indonesia', 'program', 'kepala', 'acara', 'kelompok', 'angka', 'mencegah', 'digelar', 'kerja', 'daerah', 'langsung', 'semoga', 'persen', 'kesehatan', 'jawa', 'tim']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['pelayanan', 'angka', 'petugas', 'kali', 'darah', 'jalan', 'penyebab', 'kesehatan', 'jawa', 'jantung', 'mengalami']</t>
+          <t>['kali', 'jantung', 'darah', 'angka', 'petugas', 'pelayanan', 'jalan', 'penyebab', 'kesehatan', 'jawa', 'mengalami']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['penyakit', 'ginjal', 'korban', 'laporan', 'data', 'terkait', 'jakarta', 'indonesia', 'mengalami', 'kepala', 'akut', 'kesehatan', 'provinsi', 'tim', 'obat', 'pemerintah']</t>
+          <t>['pemerintah', 'mengalami', 'penyakit', 'indonesia', 'tim', 'kepala', 'korban', 'data', 'ginjal', 'provinsi', 'terkait', 'akut', 'jakarta', 'kesehatan', 'laporan', 'obat']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'jokowi', 'masuk', 'target', 'rumah_sakit', 'data', 'protokol_kesehatan', 'keluarga', 'kegiatan', 'terkait', 'warga', 'covid', 'negara', 'kesehatan', 'vaksin', 'pandemi', 'pemerintah']</t>
+          <t>['rumah_sakit', 'pemerintah', 'protokol_kesehatan', 'warga', 'kegiatan', 'target', 'covid', 'jokowi', 'vaksinasi', 'data', 'keluarga', 'pandemi', 'terkait', 'vaksin', 'kesehatan', 'masuk', 'negara']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'sehat', 'kondisi', 'pemerintah', 'perusahaan', 'meningkatkan', 'indonesia', 'layanan', 'provinsi', 'pelayanan', 'daerah', 'peserta', 'data', 'kegiatan', 'program', 'langsung', 'warga', 'bpjs_kesehatan', 'aturan', 'memiliki', 'sakit', 'kesehatan', 'jawa']</t>
+          <t>['terima_kasih', 'indonesia', 'program', 'memiliki', 'langsung', 'perusahaan', 'peserta', 'layanan', 'data', 'bpjs_kesehatan', 'provinsi', 'sehat', 'daerah', 'jawa', 'meningkatkan', 'pelayanan', 'kondisi', 'pemerintah', 'aturan', 'warga', 'kegiatan', 'sakit', 'kesehatan']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['pendidikan', 'peserta', 'acara', 'rumah_sakit', 'semoga', 'kali', 'memiliki', 'digelar', 'negara', 'kesehatan', 'jawa', 'dokter', 'warga']</t>
+          <t>['rumah_sakit', 'kali', 'warga', 'acara', 'memiliki', 'digelar', 'semoga', 'pendidikan', 'peserta', 'dokter', 'kesehatan', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['hukum', 'korban', 'rumah_sakit', 'petugas', 'kali', 'sakit', 'kesehatan', 'jakarta', 'tim', 'dokter']</t>
+          <t>['rumah_sakit', 'kali', 'korban', 'petugas', 'sakit', 'jakarta', 'dokter', 'kesehatan', 'hukum', 'tim']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['jokowi', 'usia', 'selamat', 'perempuan', 'kali', 'jalan', 'indonesia', 'kesehatan', 'jawa']</t>
+          <t>['selamat', 'kali', 'indonesia', 'jokowi', 'usia', 'jalan', 'kesehatan', 'jawa', 'perempuan']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['pelayanan', 'petugas', 'kegiatan', 'jalan', 'polres', 'kesehatan', 'jawa', 'pemerintah']</t>
+          <t>['pemerintah', 'kegiatan', 'polres', 'petugas', 'pelayanan', 'jalan', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['pelayanan', 'rumah', 'cianjur', 'posko', 'relawan', 'semoga', 'warga', 'gempa', 'kesehatan', 'bencana', 'jawa', 'langsung']</t>
+          <t>['cianjur', 'rumah', 'warga', 'posko', 'bencana', 'langsung', 'pelayanan', 'relawan', 'semoga', 'gempa', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['penyakit', 'virus', 'infeksi', 'masuk', 'makanan', 'jakarta', 'mengalami']</t>
+          <t>['makanan', 'virus', 'infeksi', 'penyakit', 'jakarta', 'masuk', 'mengalami']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['penyakit', 'gejala', 'jenis', 'menyebabkan', 'penyebab', 'tanaman', 'mengalami']</t>
+          <t>['menyebabkan', 'penyakit', 'jenis', 'tanaman', 'penyebab', 'gejala', 'mengalami']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['sistem', 'rumah_sakit', 'sehat', 'menyebabkan', 'digelar', 'kondisi', 'laporan', 'malam', 'mengalami', 'pemerintah', 'persen', 'meningkatkan', 'sekolah', 'kali', 'indonesia', 'layanan', 'provinsi', 'pandemi', 'pelayanan', 'kegiatan', 'program', 'mengaku', 'langsung', 'keluarga', 'pasien', 'sakit', 'membantu', 'kesehatan', 'bali', 'pendidikan']</t>
+          <t>['bali', 'indonesia', 'program', 'pandemi', 'sekolah', 'langsung', 'persen', 'membantu', 'layanan', 'provinsi', 'sehat', 'pendidikan', 'rumah_sakit', 'menyebabkan', 'kali', 'meningkatkan', 'digelar', 'pelayanan', 'kondisi', 'keluarga', 'laporan', 'mengalami', 'pemerintah', 'mengaku', 'kegiatan', 'pasien', 'sistem', 'sakit', 'malam', 'kesehatan']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['penyakit', 'langsung', 'masuk', 'ribu', 'sehat', 'memiliki', 'darah', 'warga', 'jalan', 'kesehatan', 'makanan', 'kulit', 'air', 'kendaraan', 'tubuh']</t>
+          <t>['makanan', 'air', 'warga', 'penyakit', 'darah', 'memiliki', 'kulit', 'langsung', 'tubuh', 'kendaraan', 'jalan', 'sehat', 'kesehatan', 'masuk', 'ribu']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'jenis', 'pasien', 'mengalami', 'kondisi', 'sakit', 'dokter', 'tubuh']</t>
+          <t>['rumah_sakit', 'pasien', 'jenis', 'tubuh', 'sakit', 'kondisi', 'dokter', 'mengalami']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['masuk', 'keluarga', 'bantuan', 'memiliki', 'mengaku', 'jalan', 'sakit', 'polisi', 'kesehatan', 'jakarta', 'warga']</t>
+          <t>['mengaku', 'warga', 'keluarga', 'polisi', 'memiliki', 'sakit', 'jalan', 'jakarta', 'kesehatan', 'masuk', 'bantuan']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['doa', 'usia', 'gereja', 'selamat', 'semoga', 'dunia', 'sakit']</t>
+          <t>['usia', 'semoga', 'sakit', 'gereja', 'dunia', 'doa', 'selamat']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['hukum', 'pendidikan', 'rumah', 'kandungan', 'meningkatkan', 'mencegah', 'program', 'perempuan', 'memiliki', 'kesehatan', 'sehat', 'kondisi', 'negara', 'air', 'surat', 'terkait', 'kendaraan', 'keluarga']</t>
+          <t>['air', 'perempuan', 'rumah', 'program', 'pendidikan', 'keluarga', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'kendaraan', 'sehat', 'terkait', 'kondisi', 'surat', 'kesehatan', 'hukum', 'negara']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['diabetes', 'penyakit', 'infeksi', 'acara', 'rumah_sakit', 'jenis', 'sehat', 'jakarta', 'darah', 'pasien', 'mengalami', 'dunia', 'kulit', 'terkait', 'jantung', 'dokter', 'tubuh']</t>
+          <t>['rumah_sakit', 'sehat', 'infeksi', 'diabetes', 'penyakit', 'jantung', 'pasien', 'darah', 'jenis', 'tubuh', 'dunia', 'terkait', 'jakarta', 'dokter', 'kulit', 'acara', 'mengalami']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['langsung', 'pendidikan', 'sistem', 'daerah', 'rumah_sakit', 'aturan', 'program', 'memiliki', 'makanan', 'obat', 'indonesia', 'kesehatan', 'terkait', 'dokter', 'pemerintah']</t>
+          <t>['rumah_sakit', 'makanan', 'pemerintah', 'aturan', 'indonesia', 'program', 'pendidikan', 'memiliki', 'sistem', 'daerah', 'langsung', 'terkait', 'dokter', 'kesehatan', 'obat']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['diabetes', 'penyakit', 'kandungan', 'mencegah', 'manfaat', 'jenis', 'buah', 'memiliki', 'darah', 'menyebabkan', 'makanan', 'kondisi', 'membantu', 'ditemukan', 'kesehatan', 'mengurangi', 'jantung', 'tubuh']</t>
+          <t>['membantu', 'makanan', 'mengurangi', 'menyebabkan', 'ditemukan', 'diabetes', 'penyakit', 'jantung', 'darah', 'mencegah', 'memiliki', 'jenis', 'kandungan', 'manfaat', 'tubuh', 'kondisi', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'virus', 'protokol_kesehatan', 'data', 'aturan', 'corona', 'kegiatan', 'program', 'kesehatan', 'pasien', 'warga', 'indonesia', 'covid', 'ditemukan', 'air', 'terkait', 'pandemi', 'pemerintah']</t>
+          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['virus', 'daerah', 'pasien', 'jalan', 'indonesia', 'dunia', 'penyebab', 'kesehatan', 'vaksin']</t>
+          <t>['virus', 'indonesia', 'pasien', 'kesehatan', 'jalan', 'dunia', 'vaksin', 'daerah', 'penyebab']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['kandungan', 'rumah', 'mencegah', 'manfaat', 'jenis', 'sehat', 'memiliki', 'kesehatan', 'menyebabkan', 'kali', 'dunia', 'sakit', 'membantu', 'kulit', 'air', 'langsung']</t>
+          <t>['membantu', 'sehat', 'menyebabkan', 'air', 'kali', 'rumah', 'mencegah', 'memiliki', 'jenis', 'kandungan', 'manfaat', 'kulit', 'langsung', 'sakit', 'dunia', 'kesehatan']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['doa', 'persen', 'gereja', 'protokol_kesehatan', 'warga', 'indonesia', 'covid', 'negara', 'kesehatan', 'jakarta', 'malam', 'pemerintah']</t>
+          <t>['pemerintah', 'protokol_kesehatan', 'warga', 'indonesia', 'covid', 'gereja', 'persen', 'malam', 'jakarta', 'doa', 'kesehatan', 'negara']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['penyakit', 'rumah', 'korban', 'gejala', 'tubuh', 'petugas', 'kesehatan', 'warga', 'kondisi', 'kepala', 'membantu', 'ditemukan', 'sakit', 'polisi', 'jawa', 'jantung', 'keluarga']</t>
+          <t>['membantu', 'rumah', 'warga', 'penyakit', 'ditemukan', 'jantung', 'kepala', 'keluarga', 'korban', 'polisi', 'petugas', 'tubuh', 'sakit', 'kondisi', 'gejala', 'kesehatan', 'jawa']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['manfaat', 'memiliki', 'mengaku', 'kanker', 'mengandung', 'kesehatan', 'langsung']</t>
+          <t>['mengaku', 'mengandung', 'kanker', 'memiliki', 'manfaat', 'langsung', 'kesehatan']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['masuk', 'usia', 'jenis', 'buah', 'kegiatan', 'menyebabkan', 'mengalami', 'kondisi', 'jakarta', 'tim', 'dokter', 'tubuh']</t>
+          <t>['menyebabkan', 'kondisi', 'mengalami', 'kegiatan', 'tim', 'usia', 'jenis', 'tubuh', 'jakarta', 'dokter', 'masuk', 'buah']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'persen', 'gejala', 'kali', 'kesehatan', 'pasien', 'jakarta', 'kepala', 'sakit', 'ditemukan', 'pelaku', 'covid', 'vaksin', 'warga']</t>
+          <t>['ditemukan', 'warga', 'kali', 'covid', 'kepala', 'pasien', 'vaksinasi', 'vaksin', 'pelaku', 'sakit', 'persen', 'jakarta', 'kesehatan', 'gejala']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['jokowi', 'persen', 'data', 'kali', 'indonesia', 'covid', 'kebijakan', 'warga']</t>
+          <t>['kali', 'warga', 'indonesia', 'covid', 'jokowi', 'data', 'persen', 'kebijakan']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['kerja', 'jawa', 'rumah', 'mengaku', 'jalan', 'indonesia', 'malam']</t>
+          <t>['mengaku', 'rumah', 'indonesia', 'kerja', 'jalan', 'malam', 'jawa']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['mencegah', 'gejala', 'sehat', 'air', 'mengalami', 'diabetes', 'penyakit', 'kali', 'dokter', 'ginjal', 'buah', 'makanan', 'kanker', 'penyebab', 'mengandung', 'akut', 'langsung', 'jenis', 'pasien', 'sakit', 'membantu', 'mengurangi', 'kesehatan', 'obat']</t>
+          <t>['mengandung', 'kanker', 'jenis', 'langsung', 'membantu', 'air', 'mencegah', 'sehat', 'dokter', 'gejala', 'penyebab', 'obat', 'mengurangi', 'kali', 'diabetes', 'penyakit', 'ginjal', 'mengalami', 'makanan', 'pasien', 'sakit', 'akut', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['mencegah', 'kondisi', 'dunia', 'air', 'jantung', 'mengalami', 'diabetes', 'penyakit', 'persen', 'meningkatkan', 'manfaat', 'kali', 'dokter', 'tubuh', 'peserta', 'buah', 'darah', 'penyebab', 'mengandung', 'keluarga', 'usia', 'jenis', 'memiliki', 'kesehatan', 'terkait']</t>
+          <t>['mengandung', 'darah', 'memiliki', 'jenis', 'manfaat', 'persen', 'peserta', 'air', 'mencegah', 'usia', 'terkait', 'dokter', 'penyebab', 'kali', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'dunia', 'kondisi', 'keluarga', 'mengalami', 'jantung', 'kesehatan', 'buah']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['penyakit', 'sistem', 'rumah', 'protokol_kesehatan', 'program', 'kesehatan', 'covid', 'layanan', 'air', 'pandemi', 'pemerintah']</t>
+          <t>['pemerintah', 'air', 'protokol_kesehatan', 'layanan', 'rumah', 'penyakit', 'program', 'covid', 'pandemi', 'sistem', 'kesehatan']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['vaksinasi', 'sistem', 'mencegah', 'gejala', 'ribu', 'menyebabkan', 'kondisi', 'dunia', 'covid', 'vaksin', 'mengalami', 'penyakit', 'meningkatkan', 'kelompok', 'negara', 'pandemi', 'tubuh', 'virus', 'daerah', 'angka', 'ditemukan', 'langsung', 'memiliki', 'kesehatan', 'terkait', 'obat']</t>
+          <t>['virus', 'memiliki', 'angka', 'pandemi', 'langsung', 'vaksin', 'negara', 'ditemukan', 'mencegah', 'terkait', 'daerah', 'gejala', 'obat', 'menyebabkan', 'penyakit', 'covid', 'meningkatkan', 'tubuh', 'dunia', 'kondisi', 'ribu', 'mengalami', 'kelompok', 'vaksinasi', 'sistem', 'kesehatan']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['sistem', 'masuk', 'rumah_sakit', 'sehat', 'menyebabkan', 'covid', 'jantung', 'pemerintah', 'penyakit', 'meningkatkan', 'indonesia', 'layanan', 'negara', 'puskesmas', 'pandemi', 'dokter', 'pelayanan', 'daerah', 'program', 'kanker', 'langsung', 'sakit', 'kesehatan', 'terkait', 'pendidikan']</t>
+          <t>['indonesia', 'program', 'kanker', 'pandemi', 'langsung', 'negara', 'layanan', 'sehat', 'pendidikan', 'terkait', 'dokter', 'daerah', 'masuk', 'rumah_sakit', 'menyebabkan', 'penyakit', 'covid', 'meningkatkan', 'pelayanan', 'pemerintah', 'jantung', 'sistem', 'puskesmas', 'sakit', 'kesehatan']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['bandung', 'peserta', 'acara', 'kali', 'bantuan', 'digelar', 'jakarta', 'indonesia', 'mengaku', 'membantu', 'kesehatan', 'provinsi', 'jawa']</t>
+          <t>['membantu', 'mengaku', 'kali', 'bandung', 'indonesia', 'acara', 'provinsi', 'digelar', 'jakarta', 'kesehatan', 'jawa', 'bantuan', 'peserta']</t>
         </is>
       </c>
       <c r="F145" t="n">

--- a/what/kesehatan/df_result_lda.xlsx
+++ b/what/kesehatan/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'penyakit', 'indonesia', 'masuk', 'mencegah', 'tanaman', 'kondisi', 'gejala', 'penyebab']</t>
+          <t>['menyebabkan', 'penyakit', 'gejala', 'indonesia', 'tanaman', 'kondisi']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'air', 'jantung', 'keluarga', 'darah', 'memiliki', 'digelar', 'tubuh', 'kondisi', 'kesehatan', 'buah']</t>
+          <t>['air', 'memiliki', 'keluarga', 'darah', 'kesehatan', 'tubuh', 'kondisi', 'jantung', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'mengurangi', 'menyebabkan', 'mengandung', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'tubuh', 'sehat', 'kesehatan', 'perempuan']</t>
+          <t>['makanan', 'menyebabkan', 'memiliki', 'kesehatan', 'perempuan', 'tubuh', 'membantu', 'meningkatkan']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'mengaku', 'keluarga', 'langsung', 'sakit', 'sehat', 'tersangka', 'kondisi', 'dokter', 'kesehatan', 'hukum', 'perempuan']</t>
+          <t>['dokter', 'mengaku', 'keluarga', 'kesehatan', 'perempuan', 'sakit', 'langsung', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rumah', 'ditemukan', 'penyakit', 'kali', 'kepala', 'korban']</t>
+          <t>['ditemukan', 'kali', 'korban', 'rumah', 'penyakit', 'informasi']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['protokol_kesehatan', 'virus', 'warga', 'kegiatan', 'corona', 'covid', 'vaksinasi', 'mencegah', 'meningkatkan', 'persen', 'data', 'sakit', 'semoga', 'terkait', 'kebijakan', 'vaksin', 'kesehatan']</t>
+          <t>['corona', 'presiden_joko', 'virus', 'vaksinasi', 'semoga', 'terkait', 'kesehatan', 'vaksin', 'warga', 'sakit', 'persen', 'data', 'covid', 'meningkatkan', 'kebijakan']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['hiv', 'sehat', 'menyebabkan', 'virus', 'infeksi', 'penyakit', 'mencegah', 'memiliki', 'jenis', 'tubuh', 'sakit', 'dunia', 'terkait', 'kesehatan', 'gejala', 'mengalami']</t>
+          <t>['virus', 'menyebabkan', 'jenis', 'terkait', 'memiliki', 'kesehatan', 'infeksi', 'gejala', 'hiv', 'dunia', 'tubuh', 'sakit', 'penyakit', 'informasi', 'mengalami']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'semoga', 'jakarta', 'kesehatan']</t>
+          <t>['semoga', 'jakarta', 'bali', 'kesehatan']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['pemerintah', 'aturan', 'warga', 'indonesia', 'kerja', 'jenis', 'kesehatan', 'semoga', 'pendidikan', 'peserta', 'surat', 'daerah', 'negara']</t>
+          <t>['pendidikan', 'semoga', 'peserta', 'daerah', 'kesehatan', 'indonesia', 'warga', 'kerja', 'negara', 'pemerintah', 'informasi', 'jenis']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['membantu', 'pemerintah', 'kegiatan', 'indonesia', 'program', 'kepala', 'memiliki', 'meningkatkan', 'provinsi', 'sekolah', 'semoga', 'kesehatan', 'bantuan']</t>
+          <t>['bantuan', 'program', 'sekolah', 'semoga', 'memiliki', 'natal', 'kesehatan', 'kegiatan', 'indonesia', 'membantu', 'meningkatkan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['indonesia', 'kepala', 'bencana', 'membantu', 'air', 'korban', 'terkait', 'dokter', 'hukum', 'jawa', 'tim', 'obat', 'rumah', 'gempa', 'keluarga', 'laporan', 'cianjur', 'warga', 'pengungsi', 'kesehatan', 'bantuan']</t>
+          <t>['gempa', 'air', 'terkait', 'keluarga', 'pengungsi', 'kesehatan', 'korban', 'bencana', 'obat', 'indonesia', 'warga', 'rumah', 'membantu', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'data', 'provinsi']</t>
+          <t>['virus', 'pasien', 'indonesia', 'data', 'covid', 'corona']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['penyakit', 'darah', 'memiliki', 'usia', 'jenis', 'kandungan', 'manfaat', 'tubuh', 'sehat', 'kondisi', 'kesehatan', 'mengalami']</t>
+          <t>['jenis', 'penyakit', 'memiliki', 'usia', 'darah', 'kesehatan', 'manfaat', 'tubuh', 'kondisi', 'mengalami']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['pemerintah', 'sehat', 'indonesia', 'program', 'target', 'memiliki', 'meningkatkan', 'angka', 'data', 'daerah', 'puskesmas', 'semoga', 'terkait', 'dokter', 'kesehatan', 'penyebab', 'laporan']</t>
+          <t>['program', 'dokter', 'semoga', 'terkait', 'memiliki', 'daerah', 'kesehatan', 'puskesmas', 'angka', 'indonesia', 'data', 'meningkatkan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'jenis', 'langsung', 'layanan', 'bandung', 'kerja', 'bpjs_kesehatan', 'provinsi', 'pendidikan', 'terkait', 'daerah', 'jawa', 'rumah_sakit', 'rumah', 'meningkatkan', 'pelayanan', 'pemerintah', 'mengaku', 'kesehatan', 'acara']</t>
+          <t>['program', 'mengaku', 'bandung', 'acara', 'pendidikan', 'terkait', 'informasi', 'daerah', 'kesehatan', 'indonesia', 'pelayanan', 'kerja', 'rumah', 'layanan', 'langsung', 'meningkatkan', 'rumah_sakit', 'jenis']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['pemerintah', 'menyebabkan', 'layanan', 'indonesia', 'data', 'meningkatkan', 'sistem', 'puskesmas', 'terkait', 'kesehatan']</t>
+          <t>['menyebabkan', 'terkait', 'kesehatan', 'puskesmas', 'indonesia', 'layanan', 'data', 'meningkatkan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'sehat', 'mengaku', 'warga', 'penyakit', 'keluarga', 'memiliki', 'sakit', 'ribu', 'semoga', 'terkait', 'kondisi', 'dokter', 'daerah', 'bantuan', 'perempuan']</t>
+          <t>['bantuan', 'dokter', 'mengaku', 'semoga', 'penyakit', 'terkait', 'memiliki', 'keluarga', 'daerah', 'perempuan', 'warga', 'sakit', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'rumah', 'warga', 'kali', 'polres', 'kepala', 'polisi', 'darah', 'korban', 'pelaku', 'petugas', 'langsung', 'sakit', 'laporan']</t>
+          <t>['polisi', 'darah', 'kali', 'korban', 'warga', 'sakit', 'petugas', 'rumah', 'langsung', 'pelaku', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kali', 'bandung', 'polres', 'tim', 'polisi', 'pelaku', 'petugas', 'tersangka', 'kesehatan', 'ribu', 'obat']</t>
+          <t>['polisi', 'bandung', 'kesehatan', 'kali', 'obat', 'petugas', 'personel', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['layanan', 'warga', 'bali', 'kali', 'memiliki', 'langsung', 'kendaraan', 'pelayanan', 'jalan', 'semoga', 'malam', 'surat', 'kesehatan', 'selamat', 'negara']</t>
+          <t>['kendaraan', 'semoga', 'memiliki', 'selamat', 'bali', 'kesehatan', 'kali', 'jalan', 'warga', 'pelayanan', 'layanan', 'negara', 'langsung', 'malam', 'informasi']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'mengurangi', 'air', 'mengandung', 'ditemukan', 'penyakit', 'pasien', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'sistem', 'kulit', 'gejala', 'obat']</t>
+          <t>['air', 'makanan', 'ditemukan', 'pasien', 'memiliki', 'gejala', 'kulit', 'obat', 'membantu', 'meningkatkan', 'penyakit']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'mengurangi', 'sehat', 'rumah', 'kegiatan', 'penyakit', 'keluarga', 'memiliki', 'meningkatkan', 'usia', 'jenis', 'semoga', 'tubuh', 'jalan', 'dunia', 'kesehatan', 'penyebab']</t>
+          <t>['makanan', 'semoga', 'memiliki', 'keluarga', 'usia', 'membantu', 'kesehatan', 'dunia', 'kegiatan', 'tubuh', 'rumah', 'jalan', 'meningkatkan', 'penyakit', 'jenis']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['indonesia', 'darah', 'angka', 'air', 'data', 'sehat', 'terkait', 'dokter', 'obat', 'kali', 'diabetes', 'penyakit', 'ginjal', 'tubuh', 'dunia', 'kondisi', 'makanan', 'jantung', 'kesehatan']</t>
+          <t>['ginjal', 'terkait', 'penyakit', 'darah', 'kesehatan', 'kali', 'dunia', 'obat', 'indonesia', 'angka', 'tubuh', 'kondisi', 'jantung', 'informasi']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'polres', 'covid', 'kepala', 'polisi', 'persen', 'data', 'pasien', 'provinsi', 'daerah', 'pelayanan', 'terkait', 'kesehatan', 'hukum', 'masuk']</t>
+          <t>['polisi', 'pasien', 'terkait', 'daerah', 'kesehatan', 'pelayanan', 'persen', 'rumah_sakit', 'data', 'covid', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['kanker', 'darah', 'memiliki', 'manfaat', 'membantu', 'mencegah', 'sehat', 'pendidikan', 'penyebab', 'mengurangi', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'kondisi', 'mengalami', 'kegiatan', 'jantung', 'sakit', 'malam', 'kesehatan']</t>
+          <t>['jantung', 'pendidikan', 'penyakit', 'memiliki', 'darah', 'kesehatan', 'manfaat', 'kegiatan', 'tubuh', 'sakit', 'membantu', 'meningkatkan', 'kondisi', 'malam', 'mengalami']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['virus', 'korban', 'mencegah', 'sehat', 'kulit', 'gejala', 'jawa', 'masuk', 'infeksi', 'penyakit', 'tubuh', 'gempa', 'kondisi', 'mengalami', 'makanan', 'cianjur', 'warga', 'puskesmas', 'sakit', 'akut', 'kesehatan']</t>
+          <t>['gempa', 'virus', 'penyakit', 'cianjur', 'kesehatan', 'korban', 'gejala', 'kulit', 'puskesmas', 'warga', 'tubuh', 'sakit', 'infeksi', 'kondisi', 'akut', 'mengalami']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['bali', 'warga', 'mengalami', 'tim', 'polisi', 'korban', 'mencegah', 'petugas', 'kondisi', 'kesehatan', 'jawa', 'buah']</t>
+          <t>['polisi', 'bali', 'kesehatan', 'korban', 'warga', 'petugas', 'kondisi', 'mengalami']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'angka', 'data', 'persen', 'jawa']</t>
+          <t>['presiden_joko', 'virus', 'pasien', 'angka', 'indonesia', 'persen', 'data', 'covid', 'corona', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['kepala', 'keluarga', 'surat', 'buah']</t>
+          <t>['and', 'perjalanan', 'keluarga', 'dunia']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'mengaku', 'kali', 'kepala', 'polisi', 'korban', 'kerja', 'pasien', 'pelaku', 'daerah', 'jalan', 'kesehatan', 'ribu', 'mengalami']</t>
+          <t>['mengaku', 'polisi', 'pasien', 'daerah', 'kali', 'korban', 'kesehatan', 'kerja', 'jalan', 'pelaku', 'rumah_sakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mengandung', 'virus', 'kanker', 'kepala', 'darah', 'memiliki', 'jenis', 'manfaat', 'peserta', 'perempuan', 'membantu', 'mencegah', 'usia', 'kandungan', 'dokter', 'kulit', 'penyebab', 'masuk', 'obat', 'mengurangi', 'menyebabkan', 'infeksi', 'penyakit', 'covid', 'ginjal', 'meningkatkan', 'tubuh', 'kondisi', 'mengalami', 'makanan', 'jantung', 'sistem', 'sakit', 'hewan', 'kesehatan', 'buah']</t>
+          <t>['peserta', 'memiliki', 'perempuan', 'obat', 'manfaat', 'kondisi', 'mengalami', 'dokter', 'menyebabkan', 'usia', 'kulit', 'sakit', 'meningkatkan', 'jantung', 'makanan', 'ginjal', 'darah', 'kesehatan', 'infeksi', 'virus', 'membantu', 'hewan', 'tubuh', 'covid', 'penyakit', 'jenis']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['mengandung', 'bali', 'indonesia', 'kepala', 'memiliki', 'sekolah', 'manfaat', 'semoga', 'membantu', 'mencegah', 'kandungan', 'tanaman', 'kulit', 'jawa', 'penyebab', 'obat', 'tim', 'rumah', 'kali', 'penyakit', 'meningkatkan', 'tubuh', 'dunia', 'warga', 'sakit', 'kesehatan', 'acara']</t>
+          <t>['semoga', 'memiliki', 'kali', 'manfaat', 'indonesia', 'obat', 'tanaman', 'sekolah', 'perjalanan', 'kulit', 'sakit', 'meningkatkan', 'tim', 'bali', 'kesehatan', 'acara', 'dunia', 'warga', 'tubuh', 'rumah', 'membantu', 'penyakit', 'informasi']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'membantu', 'pemerintah', 'aturan', 'protokol_kesehatan', 'layanan', 'vaksinasi', 'memiliki', 'usia', 'pelaku', 'vaksin', 'puskesmas', 'pelayanan', 'sehat', 'kebijakan', 'kondisi', 'dokter', 'kesehatan']</t>
+          <t>['dokter', 'vaksinasi', 'perjalanan', 'memiliki', 'usia', 'kesehatan', 'puskesmas', 'pelaku', 'vaksin', 'pelayanan', 'layanan', 'membantu', 'kondisi', 'kebijakan', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'membantu', 'sehat', 'menyebabkan', 'keluarga', 'mencegah', 'memiliki', 'meningkatkan', 'kerja', 'langsung', 'semoga', 'malam', 'kondisi', 'kesehatan', 'penyebab', 'bantuan', 'negara']</t>
+          <t>['bantuan', 'kondisi', 'menyebabkan', 'semoga', 'memiliki', 'keluarga', 'membantu', 'kesehatan', 'kerja', 'negara', 'langsung', 'meningkatkan', 'terima_kasih', 'malam']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['tersangka', 'ditemukan', 'kali', 'polisi', 'korban', 'sekolah', 'petugas', 'jalan', 'terkait', 'kondisi', 'kesehatan', 'hukum', 'mengalami']</t>
+          <t>['polisi', 'sekolah', 'ditemukan', 'terkait', 'kesehatan', 'kali', 'korban', 'petugas', 'jalan', 'kondisi', 'mengalami']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['hiv', 'layanan', 'kegiatan', 'indonesia', 'kepala', 'darah', 'mencegah', 'digelar', 'kandungan', 'petugas', 'puskesmas', 'pelayanan', 'sehat', 'kondisi', 'kesehatan']</t>
+          <t>['darah', 'kesehatan', 'puskesmas', 'hiv', 'indonesia', 'kegiatan', 'pelayanan', 'petugas', 'layanan', 'kondisi']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['aturan', 'indonesia', 'kelompok', 'data', 'memiliki', 'terkait', 'kesehatan']</t>
+          <t>['terkait', 'memiliki', 'kesehatan', 'indonesia', 'data', 'kelompok']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['virus', 'bandung', 'kepala', 'polisi', 'kelompok', 'memiliki', 'pelaku', 'jawa', 'tim']</t>
+          <t>['polisi', 'virus', 'bandung', 'memiliki', 'kelompok', 'pelaku', 'tim']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['cianjur', 'protokol_kesehatan', 'kali', 'kegiatan', 'indonesia', 'program', 'korban', 'bencana', 'digelar', 'jalan', 'terkait', 'jakarta', 'kesehatan', 'acara']</t>
+          <t>['program', 'acara', 'terkait', 'jakarta', 'kesehatan', 'kali', 'korban', 'kegiatan', 'indonesia', 'bencana', 'jalan', 'cianjur']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['kondisi', 'kepala', 'kerja', 'hewan', 'kebijakan', 'jakarta', 'dokter', 'kesehatan', 'laporan']</t>
+          <t>['dokter', 'jakarta', 'kesehatan', 'hewan', 'kerja', 'kondisi', 'kebijakan', 'informasi']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['mengaku', 'bali', 'kali', 'penyakit', 'kandungan', 'sakit', 'jalan', 'kesehatan', 'bantuan', 'obat']</t>
+          <t>['bantuan', 'mengaku', 'bali', 'kesehatan', 'kali', 'obat', 'sakit', 'jalan', 'penyakit']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['ditemukan', 'warga', 'polisi', 'korban', 'petugas', 'langsung', 'tubuh', 'kondisi', 'kesehatan', 'bantuan']</t>
+          <t>['bantuan', 'polisi', 'ditemukan', 'kesehatan', 'korban', 'dunia', 'warga', 'tubuh', 'petugas', 'langsung', 'kondisi']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['mengaku', 'warga', 'usia', 'digelar', 'pandemi', 'daerah', 'jalan', 'peserta', 'dokter', 'kesehatan']</t>
+          <t>['dokter', 'mengaku', 'peserta', 'usia', 'daerah', 'kesehatan', 'pandemi', 'warga', 'jalan']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'menyebabkan', 'warga', 'penyakit', 'program', 'memiliki', 'petugas', 'puskesmas', 'sakit', 'jakarta', 'dokter', 'penyebab', 'mengalami']</t>
+          <t>['program', 'menyebabkan', 'memiliki', 'jakarta', 'puskesmas', 'warga', 'sakit', 'petugas', 'penyakit', 'rumah_sakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'kali', 'korban', 'sakit', 'jakarta', 'dokter', 'kesehatan', 'laporan']</t>
+          <t>['dokter', 'jakarta', 'kesehatan', 'kali', 'korban', 'sakit', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'membantu', 'pemerintah', 'kali', 'kegiatan', 'indonesia', 'program', 'covid', 'kerja', 'provinsi', 'pandemi', 'digelar', 'persen', 'kebijakan', 'jakarta', 'kesehatan', 'bencana', 'negara']</t>
+          <t>['program', 'pandemi_covid', 'covid', 'jakarta', 'kesehatan', 'kali', 'bencana', 'kegiatan', 'indonesia', 'pandemi', 'kerja', 'persen', 'and', 'negara', 'membantu', 'kebijakan', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['membantu', 'ditemukan', 'kali', 'penyakit', 'tim', 'kepala', 'keluarga', 'kelompok', 'data', 'usia', 'sistem', 'manfaat', 'kondisi', 'kesehatan', 'hukum', 'laporan', 'peserta']</t>
+          <t>['ditemukan', 'penyakit', 'peserta', 'keluarga', 'usia', 'membantu', 'kesehatan', 'kali', 'manfaat', 'data', 'kelompok', 'kondisi', 'tim']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'meningkatkan', 'kulit', 'tubuh', 'sakit', 'kondisi', 'kesehatan', 'mengalami']</t>
+          <t>['menyebabkan', 'kesehatan', 'kulit', 'tubuh', 'sakit', 'meningkatkan', 'kondisi', 'mengalami']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['pemerintah', 'kondisi', 'mengalami', 'target', 'persen', 'memiliki', 'manfaat', 'daerah', 'pendidikan', 'jakarta', 'kesehatan', 'acara', 'negara']</t>
+          <t>['acara', 'pendidikan', 'memiliki', 'jakarta', 'daerah', 'kesehatan', 'manfaat', 'persen', 'negara', 'kondisi', 'pemerintah', 'mengalami']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'pasien', 'doa', 'kesehatan', 'selamat', 'perempuan']</t>
+          <t>['pasien', 'selamat', 'kesehatan', 'perempuan', 'doa', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'kegiatan', 'indonesia', 'kesehatan', 'digelar', 'sistem', 'malam', 'jakarta', 'surat', 'daerah', 'jawa', 'tim']</t>
+          <t>['jakarta', 'daerah', 'kesehatan', 'kegiatan', 'indonesia', 'tim', 'terima_kasih', 'malam']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'memiliki', 'manfaat', 'langsung', 'semoga', 'membantu', 'kerja', 'sehat', 'relawan', 'mengurangi', 'meningkatkan', 'tubuh', 'dunia', 'doa', 'keluarga', 'sistem', 'sakit', 'kesehatan', 'bantuan']</t>
+          <t>['bantuan', 'semoga', 'memiliki', 'keluarga', 'membantu', 'kesehatan', 'dunia', 'manfaat', 'tubuh', 'sakit', 'relawan', 'doa', 'langsung', 'meningkatkan', 'terima_kasih', 'kerja']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['hiv', 'sehat', 'virus', 'kepala', 'meningkatkan', 'tubuh', 'sakit', 'dunia', 'kondisi', 'kesehatan', 'gejala', 'obat']</t>
+          <t>['virus', 'kesehatan', 'dunia', 'gejala', 'hiv', 'obat', 'tubuh', 'sakit', 'and', 'meningkatkan', 'kondisi']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['virus', 'bali', 'warga', 'rumah', 'kepala', 'vaksinasi', 'korban', 'usia', 'langsung', 'hewan', 'terkait', 'vaksin', 'kesehatan', 'laporan', 'mengalami']</t>
+          <t>['virus', 'vaksinasi', 'terkait', 'usia', 'bali', 'hewan', 'korban', 'kesehatan', 'vaksin', 'warga', 'rumah', 'langsung', 'mengalami']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['mengaku', 'air', 'rumah', 'warga', 'ditemukan', 'polres', 'kali', 'korban', 'langsung', 'kondisi', 'perempuan']</t>
+          <t>['mengaku', 'air', 'ditemukan', 'kali', 'perempuan', 'korban', 'warga', 'rumah', 'langsung', 'kondisi', 'informasi']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['mengurangi', 'mengandung', 'ditemukan', 'memiliki', 'jenis', 'manfaat', 'sehat', 'kesehatan']</t>
+          <t>['ditemukan', 'memiliki', 'kesehatan', 'manfaat', 'jenis']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'jokowi', 'kepala', 'sehat', 'kondisi', 'dokter', 'kesehatan']</t>
+          <t>['dokter', 'presiden_joko', 'jokowi', 'kesehatan', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['virus', 'mengalami', 'penyakit', 'tim', 'memiliki', 'kerja', 'tubuh', 'sakit', 'dunia', 'gejala', 'negara']</t>
+          <t>['virus', 'memiliki', 'dunia', 'gejala', 'tubuh', 'sakit', 'kerja', 'negara', 'penyakit', 'tim', 'mengalami']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['tersangka', 'rumah', 'warga', 'indonesia', 'kepala', 'keluarga', 'memiliki', 'petugas', 'pelayanan', 'terkait', 'kondisi', 'kesehatan', 'negara']</t>
+          <t>['terkait', 'memiliki', 'keluarga', 'natal', 'kesehatan', 'indonesia', 'warga', 'pelayanan', 'petugas', 'rumah', 'negara', 'kondisi']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['mengandung', 'virus', 'indonesia', 'kanker', 'darah', 'memiliki', 'jenis', 'manfaat', 'semoga', 'negara', 'membantu', 'air', 'mencegah', 'usia', 'kerja', 'kandungan', 'tanaman', 'dokter', 'kulit', 'obat', 'mengurangi', 'menyebabkan', 'infeksi', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'pelayanan', 'kondisi', 'mengalami', 'makanan', 'jantung', 'pasien', 'sistem', 'sakit', 'kesehatan', 'buah']</t>
+          <t>['air', 'semoga', 'memiliki', 'manfaat', 'indonesia', 'obat', 'tanaman', 'kondisi', 'mengalami', 'dokter', 'menyebabkan', 'usia', 'kulit', 'sakit', 'meningkatkan', 'jantung', 'and', 'makanan', 'pasien', 'darah', 'kesehatan', 'infeksi', 'negara', 'virus', 'tubuh', 'kerja', 'membantu', 'penyakit', 'jenis']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['infeksi', 'penyakit', 'covid', 'keluarga', 'pandemi', 'dunia', 'kulit', 'negara']</t>
+          <t>['pandemi_covid', 'keluarga', 'dunia', 'pandemi', 'kulit', 'infeksi', 'negara', 'covid', 'penyakit', 'and']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'air', 'virus', 'infeksi', 'diabetes', 'penyakit', 'jantung', 'kepala', 'ginjal', 'memiliki', 'tubuh', 'sakit', 'terkait', 'dokter', 'kesehatan', 'gejala', 'obat']</t>
+          <t>['dokter', 'air', 'virus', 'menyebabkan', 'ginjal', 'terkait', 'memiliki', 'kesehatan', 'infeksi', 'gejala', 'obat', 'tubuh', 'and', 'penyakit', 'jantung']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['warga', 'kegiatan', 'polres', 'covid', 'pelayanan', 'gereja', 'terkait', 'malam', 'kesehatan']</t>
+          <t>['terkait', 'kesehatan', 'natal', 'kegiatan', 'personel', 'warga', 'pelayanan', 'covid', 'malam', 'gereja']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['makanan', 'menyebabkan', 'air', 'mengandung', 'kali', 'jantung', 'memiliki', 'jenis', 'manfaat', 'tubuh', 'persen', 'kesehatan']</t>
+          <t>['air', 'makanan', 'menyebabkan', 'memiliki', 'kesehatan', 'kali', 'manfaat', 'tubuh', 'persen', 'jantung', 'jenis']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['virus', 'darah', 'angka', 'pandemi', 'persen', 'negara', 'provinsi', 'obat', 'rumah_sakit', 'mengurangi', 'menyebabkan', 'infeksi', 'covid', 'laporan', 'ribu', 'pemerintah', 'corona', 'pasien', 'sakit', 'akut', 'kesehatan']</t>
+          <t>['virus', 'menyebabkan', 'pandemi_covid', 'pasien', 'pemerintah', 'darah', 'kesehatan', 'pandemi', 'infeksi', 'obat', 'angka', 'sakit', 'persen', 'negara', 'covid', 'corona', 'akut', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'mengaku', 'layanan', 'warga', 'kepala', 'memiliki', 'bpjs_kesehatan', 'kerja', 'daerah', 'pelayanan', 'jalan', 'kondisi', 'dokter', 'kesehatan', 'jawa']</t>
+          <t>['mengaku', 'memiliki', 'daerah', 'kesehatan', 'warga', 'pelayanan', 'kerja', 'layanan', 'jalan', 'kondisi', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['perusahaan', 'tersangka', 'indonesia', 'terkait', 'jakarta', 'kesehatan', 'jawa', 'negara']</t>
+          <t>['terkait', 'jakarta', 'kesehatan', 'indonesia', 'negara']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6254,7 +6254,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'penyakit', 'meningkatkan', 'tanaman', 'sehat', 'gejala']</t>
+          <t>['menyebabkan', 'gejala', 'tanaman', 'meningkatkan', 'penyakit']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
+          <t>['program', 'virus', 'vaksinasi', 'ditemukan', 'pasien', 'terkait', 'kesehatan', 'pandemi', 'indonesia', 'data', 'covid', 'corona', 'pemerintah']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['program', 'langsung', 'bencana', 'perempuan', 'membantu', 'negara', 'air', 'bandung', 'korban', 'kerja', 'terkait', 'jakarta', 'dokter', 'tim', 'rumah', 'meningkatkan', 'dunia', 'gempa', 'kondisi', 'laporan', 'mengalami', 'makanan', 'cianjur', 'warga', 'kegiatan', 'kelompok', 'pengungsi', 'malam', 'kesehatan', 'acara', 'bantuan']</t>
+          <t>['program', 'air', 'bencana', 'perempuan', 'kondisi', 'mengalami', 'dokter', 'korban', 'meningkatkan', 'tim', 'gempa', 'bantuan', 'makanan', 'jakarta', 'kesehatan', 'negara', 'langsung', 'kelompok', 'malam', 'cianjur', 'bandung', 'acara', 'terkait', 'pengungsi', 'dunia', 'kegiatan', 'warga', 'kerja', 'membantu', 'informasi']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['aturan', 'layanan', 'bandung', 'kepala', 'vaksinasi', 'memiliki', 'usia', 'vaksin', 'daerah', 'puskesmas', 'pelayanan', 'jakarta', 'kesehatan', 'ribu', 'mengalami']</t>
+          <t>['bandung', 'vaksinasi', 'perjalanan', 'memiliki', 'usia', 'jakarta', 'daerah', 'natal', 'kesehatan', 'puskesmas', 'vaksin', 'layanan', 'mengalami']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['penyakit', 'darah', 'memiliki', 'jenis', 'manfaat', 'daerah', 'tanaman', 'tubuh', 'langsung', 'kondisi', 'kesehatan', 'obat']</t>
+          <t>['penyakit', 'memiliki', 'darah', 'daerah', 'kesehatan', 'manfaat', 'obat', 'tanaman', 'tubuh', 'langsung', 'kondisi', 'jenis']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengurangi', 'layanan', 'indonesia', 'program', 'kepala', 'meningkatkan', 'provinsi', 'digelar', 'manfaat', 'petugas', 'pelayanan', 'terkait', 'kebijakan', 'peserta', 'kesehatan', 'jawa']</t>
+          <t>['program', 'terkait', 'peserta', 'perjalanan', 'kesehatan', 'indonesia', 'pelayanan', 'petugas', 'layanan', 'meningkatkan', 'kebijakan', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'covid', 'kepala', 'pasien', 'persen', 'terkait', 'daerah', 'hukum']</t>
+          <t>['pasien', 'terkait', 'daerah', 'persen', 'rumah_sakit', 'covid', 'informasi']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['makanan', 'air', 'bali', 'penyakit', 'kepala', 'memiliki', 'langsung', 'jalan', 'sehat', 'terkait', 'kesehatan']</t>
+          <t>['air', 'makanan', 'terkait', 'perjalanan', 'memiliki', 'bali', 'kesehatan', 'jalan', 'langsung', 'penyakit']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'infeksi', 'penyakit', 'jantung', 'darah', 'sistem', 'tubuh', 'kondisi', 'kulit', 'gejala', 'mengalami']</t>
+          <t>['menyebabkan', 'penyakit', 'darah', 'infeksi', 'gejala', 'kulit', 'tubuh', 'kondisi', 'jantung', 'mengalami']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['cianjur', 'protokol_kesehatan', 'kegiatan', 'indonesia', 'korban', 'kerja', 'bencana', 'digelar', 'langsung', 'jakarta', 'kesehatan', 'acara']</t>
+          <t>['acara', 'jakarta', 'kesehatan', 'korban', 'bencana', 'kegiatan', 'indonesia', 'kerja', 'langsung', 'cianjur']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['hukum', 'provinsi', 'petugas', 'sakit', 'semoga', 'tersangka', 'daerah', 'acara', 'perempuan']</t>
+          <t>['acara', 'semoga', 'daerah', 'perempuan', 'sakit', 'petugas', 'informasi']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['bali', 'kepala', 'angka', 'pandemi', 'semoga', 'persen', 'kebijakan', 'vaksin', 'air', 'provinsi', 'penyebab', 'menyebabkan', 'rumah', 'penyakit', 'covid', 'petugas', 'tubuh', 'ribu', 'kegiatan', 'vaksinasi', 'puskesmas', 'hewan', 'kesehatan']</t>
+          <t>['menyebabkan', 'vaksinasi', 'semoga', 'pandemi_covid', 'bali', 'hewan', 'kesehatan', 'puskesmas', 'angka', 'vaksin', 'pandemi', 'tubuh', 'persen', 'petugas', 'rumah', 'covid', 'penyakit', 'kebijakan']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['pemerintah', 'virus', 'indonesia', 'corona', 'covid', 'pasien', 'data', 'provinsi']</t>
+          <t>['virus', 'pasien', 'indonesia', 'data', 'covid', 'corona']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['indonesia', 'jalan', 'sehat', 'jakarta', 'kesehatan', 'hukum', 'mengalami']</t>
+          <t>['jalan', 'jakarta', 'kesehatan', 'mengalami']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['air', 'protokol_kesehatan', 'kali', 'bandung', 'indonesia', 'covid', 'pandemi', 'malam', 'kesehatan', 'acara', 'masuk']</t>
+          <t>['bandung', 'acara', 'pandemi_covid', 'kesehatan', 'kali', 'pandemi', 'indonesia', 'and', 'covid', 'malam']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['pemerintah', 'warga', 'indonesia', 'program', 'target', 'masuk', 'bpjs_kesehatan', 'digelar', 'langsung', 'kebijakan', 'jakarta', 'kesehatan', 'hukum', 'negara']</t>
+          <t>['program', 'jakarta', 'kesehatan', 'indonesia', 'warga', 'negara', 'langsung', 'kebijakan', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['pemerintah', 'protokol_kesehatan', 'petugas', 'tubuh', 'kendaraan', 'jalan', 'pelayanan', 'kondisi', 'kesehatan', 'jawa', 'ribu', 'mengalami']</t>
+          <t>['kendaraan', 'perjalanan', 'kesehatan', 'personel', 'pelayanan', 'tubuh', 'petugas', 'jalan', 'kondisi', 'pemerintah', 'mengalami']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
+          <t>['program', 'virus', 'vaksinasi', 'ditemukan', 'pasien', 'terkait', 'kesehatan', 'pandemi', 'indonesia', 'data', 'covid', 'corona', 'pemerintah']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['air', 'rumah', 'warga', 'kepala', 'memiliki', 'tanaman', 'kendaraan', 'jalan', 'hewan', 'kondisi', 'masuk', 'laporan']</t>
+          <t>['kendaraan', 'air', 'perjalanan', 'memiliki', 'hewan', 'warga', 'tanaman', 'rumah', 'jalan', 'kondisi']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['pemerintah', 'infeksi', 'indonesia', 'kegiatan', 'corona', 'covid', 'warga', 'vaksinasi', 'memiliki', 'persen', 'pandemi', 'tubuh', 'dunia', 'terkait', 'kebijakan', 'kesehatan', 'masuk']</t>
+          <t>['corona', 'vaksinasi', 'pandemi_covid', 'terkait', 'memiliki', 'kesehatan', 'pandemi', 'infeksi', 'dunia', 'indonesia', 'warga', 'tubuh', 'persen', 'covid', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['protokol_kesehatan', 'kegiatan', 'indonesia', 'covid', 'kepala', 'vaksinasi', 'memiliki', 'meningkatkan', 'digelar', 'pelayanan', 'terkait', 'jakarta', 'kesehatan', 'negara']</t>
+          <t>['vaksinasi', 'terkait', 'memiliki', 'jakarta', 'natal', 'kesehatan', 'kegiatan', 'personel', 'pelayanan', 'negara', 'covid', 'meningkatkan']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['kondisi', 'mengalami', 'provinsi', 'daerah', 'puskesmas', 'ribu', 'jalan', 'malam', 'jakarta', 'kesehatan', 'hukum', 'bantuan', 'negara']</t>
+          <t>['bantuan', 'presiden_joko', 'perjalanan', 'jakarta', 'daerah', 'kesehatan', 'puskesmas', 'negara', 'jalan', 'kondisi', 'malam', 'mengalami']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['covid', 'kepala', 'pasien', 'kondisi', 'surat', 'bencana']</t>
+          <t>['pasien', 'covid', 'kondisi', 'bencana']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['membantu', 'perusahaan', 'layanan', 'program', 'data', 'bpjs_kesehatan', 'sistem', 'manfaat', 'sakit', 'pelayanan', 'dunia', 'terkait', 'peserta', 'surat', 'kesehatan', 'perempuan']</t>
+          <t>['program', 'terkait', 'peserta', 'kesehatan', 'dunia', 'perempuan', 'manfaat', 'pelayanan', 'sakit', 'layanan', 'data', 'membantu']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rumah', 'ditemukan', 'memiliki', 'jenis', 'tanaman', 'sakit', 'negara', 'dunia', 'perusahaan', 'malam', 'kesehatan', 'buah']</t>
+          <t>['ditemukan', 'memiliki', 'kesehatan', 'dunia', 'tanaman', 'sakit', 'rumah', 'negara', 'malam', 'jenis']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['pemerintah', 'aturan', 'rumah', 'kepala', 'pelayanan', 'jalan', 'kesehatan']</t>
+          <t>['kesehatan', 'pelayanan', 'rumah', 'jalan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'ditemukan', 'indonesia', 'target', 'vaksinasi', 'provinsi', 'langsung', 'dunia', 'vaksin', 'kesehatan', 'laporan', 'tim']</t>
+          <t>['vaksinasi', 'ditemukan', 'informasi', 'pemerintah', 'kesehatan', 'dunia', 'vaksin', 'indonesia', 'langsung', 'tim', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'air', 'ditemukan', 'infeksi', 'kepala', 'sistem', 'tubuh', 'sakit', 'persen', 'penyebab', 'kondisi', 'gejala', 'mengalami']</t>
+          <t>['air', 'menyebabkan', 'ditemukan', 'infeksi', 'gejala', 'tubuh', 'persen', 'kondisi', 'mengalami']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['jokowi', 'mengaku', 'kerja']</t>
+          <t>['kerja', 'mengaku', 'jokowi', 'jakarta']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'polres', 'kepala', 'pasien', 'polisi', 'langsung', 'malam', 'kondisi', 'kesehatan', 'bantuan']</t>
+          <t>['bantuan', 'polisi', 'pasien', 'kesehatan', 'rumah_sakit', 'langsung', 'kondisi', 'malam', 'informasi']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8634,7 +8634,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'program', 'memiliki', 'langsung', 'persen', 'peserta', 'negara', 'data', 'bpjs_kesehatan', 'kerja', 'sehat', 'terkait', 'daerah', 'hukum', 'rumah_sakit', 'rumah', 'meningkatkan', 'pelayanan', 'pemerintah', 'warga', 'kegiatan', 'puskesmas', 'kesehatan']</t>
+          <t>['program', 'peserta', 'memiliki', 'rumah_sakit', 'data', 'meningkatkan', 'daerah', 'kesehatan', 'puskesmas', 'pelayanan', 'negara', 'langsung', 'pemerintah', 'terkait', 'kegiatan', 'warga', 'kerja', 'persen', 'rumah', 'terima_kasih', 'informasi']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['mengandung', 'virus', 'infeksi', 'penyakit', 'vaksinasi', 'usia', 'jenis', 'vaksin', 'negara', 'kondisi', 'kesehatan', 'obat']</t>
+          <t>['virus', 'vaksinasi', 'penyakit', 'perjalanan', 'usia', 'kesehatan', 'infeksi', 'obat', 'vaksin', 'negara', 'and', 'kondisi', 'jenis']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['membantu', 'kali', 'kegiatan', 'posko', 'persen', 'data', 'pelayanan', 'terkait', 'kesehatan', 'ribu']</t>
+          <t>['posko', 'terkait', 'perjalanan', 'natal', 'kali', 'kesehatan', 'kegiatan', 'pelayanan', 'persen', 'data', 'membantu', 'informasi']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'sehat', 'menyebabkan', 'ditemukan', 'kali', 'mengalami', 'tim', 'kelompok', 'data', 'kesehatan', 'manfaat', 'dunia', 'kebijakan', 'daerah', 'negara']</t>
+          <t>['data', 'makanan', 'menyebabkan', 'ditemukan', 'membantu', 'daerah', 'kali', 'kesehatan', 'manfaat', 'dunia', 'negara', 'kelompok', 'kebijakan', 'tim', 'informasi', 'mengalami']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengurangi', 'layanan', 'indonesia', 'program', 'kepala', 'persen', 'meningkatkan', 'manfaat', 'petugas', 'pelayanan', 'terkait', 'kebijakan', 'jakarta', 'kesehatan', 'peserta']</t>
+          <t>['program', 'terkait', 'peserta', 'perjalanan', 'jakarta', 'kesehatan', 'indonesia', 'pelayanan', 'persen', 'layanan', 'petugas', 'meningkatkan', 'kebijakan', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'mengurangi', 'air', 'kali', 'penyakit', 'jantung', 'darah', 'memiliki', 'meningkatkan', 'kandungan', 'manfaat', 'sistem', 'tubuh', 'sehat', 'kesehatan', 'masuk', 'tim']</t>
+          <t>['air', 'jantung', 'makanan', 'memiliki', 'darah', 'kesehatan', 'kali', 'manfaat', 'tubuh', 'membantu', 'meningkatkan', 'penyakit', 'tim', 'informasi']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'bali', 'warga', 'korban', 'vaksin', 'puskesmas', 'hewan', 'kondisi', 'surat', 'kesehatan', 'hukum', 'masuk']</t>
+          <t>['bali', 'hewan', 'korban', 'kesehatan', 'puskesmas', 'vaksin', 'warga', 'kondisi', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'korban', 'digelar', 'sakit', 'surat', 'dokter', 'mengalami']</t>
+          <t>['dokter', 'korban', 'sakit', 'rumah_sakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['membantu', 'mengaku', 'protokol_kesehatan', 'kali', 'memiliki', 'gereja', 'kesehatan']</t>
+          <t>['mengaku', 'memiliki', 'perjalanan', 'natal', 'kali', 'kesehatan', 'membantu', 'gereja']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['cianjur', 'rumah', 'warga', 'indonesia', 'tim', 'kepala', 'keluarga', 'korban', 'kelompok', 'pengungsi', 'sekolah', 'ribu', 'gempa', 'kesehatan', 'bantuan', 'perempuan']</t>
+          <t>['gempa', 'bantuan', 'sekolah', 'keluarga', 'pengungsi', 'kesehatan', 'korban', 'perempuan', 'indonesia', 'warga', 'rumah', 'kelompok', 'tim', 'cianjur']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['bandung', 'indonesia', 'program', 'kepala', 'acara', 'kelompok', 'angka', 'mencegah', 'digelar', 'kerja', 'daerah', 'langsung', 'semoga', 'persen', 'kesehatan', 'jawa', 'tim']</t>
+          <t>['kelompok', 'program', 'bandung', 'acara', 'semoga', 'daerah', 'kesehatan', 'angka', 'indonesia', 'kerja', 'persen', 'langsung', 'tim', 'informasi']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['kali', 'jantung', 'darah', 'angka', 'petugas', 'pelayanan', 'jalan', 'penyebab', 'kesehatan', 'jawa', 'mengalami']</t>
+          <t>['darah', 'kesehatan', 'kali', 'angka', 'pelayanan', 'petugas', 'jalan', 'jantung', 'mengalami']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengalami', 'penyakit', 'indonesia', 'tim', 'kepala', 'korban', 'data', 'ginjal', 'provinsi', 'terkait', 'akut', 'jakarta', 'kesehatan', 'laporan', 'obat']</t>
+          <t>['akut', 'ginjal', 'terkait', 'pemerintah', 'jakarta', 'kesehatan', 'korban', 'obat', 'indonesia', 'penyakit', 'tim', 'mengalami']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pemerintah', 'protokol_kesehatan', 'warga', 'kegiatan', 'target', 'covid', 'jokowi', 'vaksinasi', 'data', 'keluarga', 'pandemi', 'terkait', 'vaksin', 'kesehatan', 'masuk', 'negara']</t>
+          <t>['data', 'terkait', 'keluarga', 'jokowi', 'kesehatan', 'pandemi', 'vaksin', 'warga', 'negara', 'covid', 'pemerintah', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['terima_kasih', 'indonesia', 'program', 'memiliki', 'langsung', 'perusahaan', 'peserta', 'layanan', 'data', 'bpjs_kesehatan', 'provinsi', 'sehat', 'daerah', 'jawa', 'meningkatkan', 'pelayanan', 'kondisi', 'pemerintah', 'aturan', 'warga', 'kegiatan', 'sakit', 'kesehatan']</t>
+          <t>['program', 'kondisi', 'peserta', 'memiliki', 'kesehatan', 'daerah', 'kegiatan', 'indonesia', 'warga', 'sakit', 'data', 'langsung', 'meningkatkan', 'terima_kasih', 'pemerintah']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9912,7 +9912,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'kali', 'warga', 'acara', 'memiliki', 'digelar', 'semoga', 'pendidikan', 'peserta', 'dokter', 'kesehatan', 'jawa', 'negara']</t>
+          <t>['dokter', 'acara', 'pendidikan', 'semoga', 'peserta', 'memiliki', 'kesehatan', 'kali', 'warga', 'negara', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'kali', 'korban', 'petugas', 'sakit', 'jakarta', 'dokter', 'kesehatan', 'hukum', 'tim']</t>
+          <t>['dokter', 'jakarta', 'kesehatan', 'kali', 'korban', 'sakit', 'petugas', 'tim', 'rumah_sakit']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -10066,7 +10066,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['selamat', 'kali', 'indonesia', 'jokowi', 'usia', 'jalan', 'kesehatan', 'jawa', 'perempuan']</t>
+          <t>['presiden_joko', 'perjalanan', 'jokowi', 'selamat', 'usia', 'kesehatan', 'kali', 'perempuan', 'indonesia', 'jalan']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['pemerintah', 'kegiatan', 'polres', 'petugas', 'pelayanan', 'jalan', 'kesehatan', 'jawa']</t>
+          <t>['kesehatan', 'natal', 'kegiatan', 'personel', 'pelayanan', 'petugas', 'jalan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['cianjur', 'rumah', 'warga', 'posko', 'bencana', 'langsung', 'pelayanan', 'relawan', 'semoga', 'gempa', 'kesehatan', 'jawa']</t>
+          <t>['gempa', 'posko', 'semoga', 'kesehatan', 'bencana', 'warga', 'rumah', 'relawan', 'langsung', 'cianjur']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['makanan', 'virus', 'infeksi', 'penyakit', 'jakarta', 'masuk', 'mengalami']</t>
+          <t>['virus', 'makanan', 'jakarta', 'infeksi', 'penyakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'penyakit', 'jenis', 'tanaman', 'penyebab', 'gejala', 'mengalami']</t>
+          <t>['menyebabkan', 'gejala', 'tanaman', 'penyakit', 'mengalami', 'jenis']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'program', 'pandemi', 'sekolah', 'langsung', 'persen', 'membantu', 'layanan', 'provinsi', 'sehat', 'pendidikan', 'rumah_sakit', 'menyebabkan', 'kali', 'meningkatkan', 'digelar', 'pelayanan', 'kondisi', 'keluarga', 'laporan', 'mengalami', 'pemerintah', 'mengaku', 'kegiatan', 'pasien', 'sistem', 'sakit', 'malam', 'kesehatan']</t>
+          <t>['program', 'mengaku', 'pendidikan', 'kali', 'indonesia', 'layanan', 'kondisi', 'rumah_sakit', 'mengalami', 'sekolah', 'menyebabkan', 'pandemi', 'sakit', 'meningkatkan', 'pasien', 'keluarga', 'jakarta', 'bali', 'kesehatan', 'pelayanan', 'langsung', 'malam', 'pemerintah', 'kegiatan', 'persen', 'membantu']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['makanan', 'air', 'warga', 'penyakit', 'darah', 'memiliki', 'kulit', 'langsung', 'tubuh', 'kendaraan', 'jalan', 'sehat', 'kesehatan', 'masuk', 'ribu']</t>
+          <t>['kendaraan', 'air', 'makanan', 'memiliki', 'darah', 'kesehatan', 'jalan', 'kulit', 'warga', 'tubuh', 'langsung', 'penyakit']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'pasien', 'jenis', 'tubuh', 'sakit', 'kondisi', 'dokter', 'mengalami']</t>
+          <t>['dokter', 'jenis', 'pasien', 'tubuh', 'sakit', 'kondisi', 'rumah_sakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['mengaku', 'warga', 'keluarga', 'polisi', 'memiliki', 'sakit', 'jalan', 'jakarta', 'kesehatan', 'masuk', 'bantuan']</t>
+          <t>['bantuan', 'mengaku', 'polisi', 'memiliki', 'keluarga', 'jakarta', 'kesehatan', 'warga', 'sakit', 'jalan']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['usia', 'semoga', 'sakit', 'gereja', 'dunia', 'doa', 'selamat']</t>
+          <t>['semoga', 'usia', 'selamat', 'dunia', 'sakit', 'doa', 'gereja']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10839,7 +10839,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['air', 'perempuan', 'rumah', 'program', 'pendidikan', 'keluarga', 'mencegah', 'memiliki', 'meningkatkan', 'kandungan', 'kendaraan', 'sehat', 'terkait', 'kondisi', 'surat', 'kesehatan', 'hukum', 'negara']</t>
+          <t>['program', 'kendaraan', 'air', 'pendidikan', 'terkait', 'memiliki', 'keluarga', 'kesehatan', 'perempuan', 'rumah', 'negara', 'meningkatkan', 'kondisi']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'sehat', 'infeksi', 'diabetes', 'penyakit', 'jantung', 'pasien', 'darah', 'jenis', 'tubuh', 'dunia', 'terkait', 'jakarta', 'dokter', 'kulit', 'acara', 'mengalami']</t>
+          <t>['acara', 'jenis', 'pasien', 'terkait', 'jakarta', 'darah', 'dunia', 'infeksi', 'kulit', 'tubuh', 'penyakit', 'jantung', 'rumah_sakit', 'mengalami']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['rumah_sakit', 'makanan', 'pemerintah', 'aturan', 'indonesia', 'program', 'pendidikan', 'memiliki', 'sistem', 'daerah', 'langsung', 'terkait', 'dokter', 'kesehatan', 'obat']</t>
+          <t>['program', 'dokter', 'makanan', 'pendidikan', 'terkait', 'memiliki', 'daerah', 'kesehatan', 'obat', 'rumah_sakit', 'langsung', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['membantu', 'makanan', 'mengurangi', 'menyebabkan', 'ditemukan', 'diabetes', 'penyakit', 'jantung', 'darah', 'mencegah', 'memiliki', 'jenis', 'kandungan', 'manfaat', 'tubuh', 'kondisi', 'kesehatan', 'buah']</t>
+          <t>['makanan', 'menyebabkan', 'ditemukan', 'penyakit', 'memiliki', 'darah', 'kesehatan', 'manfaat', 'tubuh', 'membantu', 'kondisi', 'jantung', 'jenis']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['pemerintah', 'air', 'protokol_kesehatan', 'virus', 'warga', 'indonesia', 'ditemukan', 'kegiatan', 'corona', 'program', 'vaksinasi', 'data', 'covid', 'pasien', 'pandemi', 'aturan', 'terkait', 'kesehatan']</t>
+          <t>['program', 'virus', 'vaksinasi', 'ditemukan', 'pasien', 'terkait', 'kesehatan', 'pandemi', 'indonesia', 'data', 'covid', 'corona', 'pemerintah']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['virus', 'indonesia', 'pasien', 'kesehatan', 'jalan', 'dunia', 'vaksin', 'daerah', 'penyebab']</t>
+          <t>['virus', 'pasien', 'daerah', 'kesehatan', 'dunia', 'vaksin', 'indonesia', 'jalan']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['membantu', 'sehat', 'menyebabkan', 'air', 'kali', 'rumah', 'mencegah', 'memiliki', 'jenis', 'kandungan', 'manfaat', 'kulit', 'langsung', 'sakit', 'dunia', 'kesehatan']</t>
+          <t>['menyebabkan', 'memiliki', 'membantu', 'kesehatan', 'kali', 'kulit', 'manfaat', 'dunia', 'sakit', 'rumah', 'langsung', 'jenis']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['pemerintah', 'protokol_kesehatan', 'warga', 'indonesia', 'covid', 'gereja', 'persen', 'malam', 'jakarta', 'doa', 'kesehatan', 'negara']</t>
+          <t>['pemerintah', 'jakarta', 'natal', 'kesehatan', 'indonesia', 'warga', 'persen', 'doa', 'negara', 'covid', 'malam', 'gereja']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['membantu', 'rumah', 'warga', 'penyakit', 'ditemukan', 'jantung', 'kepala', 'keluarga', 'korban', 'polisi', 'petugas', 'tubuh', 'sakit', 'kondisi', 'gejala', 'kesehatan', 'jawa']</t>
+          <t>['polisi', 'ditemukan', 'penyakit', 'keluarga', 'kesehatan', 'korban', 'gejala', 'warga', 'tubuh', 'sakit', 'petugas', 'rumah', 'membantu', 'kondisi', 'jantung', 'informasi']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['mengaku', 'mengandung', 'kanker', 'memiliki', 'manfaat', 'langsung', 'kesehatan']</t>
+          <t>['mengaku', 'memiliki', 'kesehatan', 'manfaat', 'langsung']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11646,7 +11646,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['menyebabkan', 'kondisi', 'mengalami', 'kegiatan', 'tim', 'usia', 'jenis', 'tubuh', 'jakarta', 'dokter', 'masuk', 'buah']</t>
+          <t>['menyebabkan', 'jenis', 'usia', 'jakarta', 'kegiatan', 'tubuh', 'kondisi', 'tim', 'mengalami']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['ditemukan', 'warga', 'kali', 'covid', 'kepala', 'pasien', 'vaksinasi', 'vaksin', 'pelaku', 'sakit', 'persen', 'jakarta', 'kesehatan', 'gejala']</t>
+          <t>['ditemukan', 'pasien', 'perjalanan', 'jakarta', 'kesehatan', 'kali', 'gejala', 'vaksin', 'warga', 'sakit', 'persen', 'covid', 'pelaku']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['kali', 'warga', 'indonesia', 'covid', 'jokowi', 'data', 'persen', 'kebijakan']</t>
+          <t>['presiden_joko', 'perjalanan', 'jokowi', 'natal', 'kali', 'indonesia', 'warga', 'persen', 'data', 'covid', 'kebijakan']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['mengaku', 'rumah', 'indonesia', 'kerja', 'jalan', 'malam', 'jawa']</t>
+          <t>['mengaku', 'indonesia', 'kerja', 'rumah', 'jalan', 'malam']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11907,7 +11907,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['mengandung', 'kanker', 'jenis', 'langsung', 'membantu', 'air', 'mencegah', 'sehat', 'dokter', 'gejala', 'penyebab', 'obat', 'mengurangi', 'kali', 'diabetes', 'penyakit', 'ginjal', 'mengalami', 'makanan', 'pasien', 'sakit', 'akut', 'kesehatan', 'buah']</t>
+          <t>['dokter', 'air', 'makanan', 'ginjal', 'pasien', 'jenis', 'membantu', 'kesehatan', 'kali', 'gejala', 'obat', 'sakit', 'langsung', 'penyakit', 'akut', 'mengalami']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['mengandung', 'darah', 'memiliki', 'jenis', 'manfaat', 'persen', 'peserta', 'air', 'mencegah', 'usia', 'terkait', 'dokter', 'penyebab', 'kali', 'diabetes', 'penyakit', 'meningkatkan', 'tubuh', 'dunia', 'kondisi', 'keluarga', 'mengalami', 'jantung', 'kesehatan', 'buah']</t>
+          <t>['air', 'peserta', 'memiliki', 'kali', 'kondisi', 'mengalami', 'dokter', 'usia', 'meningkatkan', 'jantung', 'keluarga', 'darah', 'kesehatan', 'terkait', 'dunia', 'tubuh', 'persen', 'and', 'penyakit', 'jenis']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['pemerintah', 'air', 'protokol_kesehatan', 'layanan', 'rumah', 'penyakit', 'program', 'covid', 'pandemi', 'sistem', 'kesehatan']</t>
+          <t>['program', 'air', 'pandemi_covid', 'kesehatan', 'pandemi', 'rumah', 'covid', 'penyakit', 'pemerintah']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['virus', 'memiliki', 'angka', 'pandemi', 'langsung', 'vaksin', 'negara', 'ditemukan', 'mencegah', 'terkait', 'daerah', 'gejala', 'obat', 'menyebabkan', 'penyakit', 'covid', 'meningkatkan', 'tubuh', 'dunia', 'kondisi', 'ribu', 'mengalami', 'kelompok', 'vaksinasi', 'sistem', 'kesehatan']</t>
+          <t>['memiliki', 'obat', 'angka', 'kondisi', 'mengalami', 'menyebabkan', 'pandemi', 'gejala', 'meningkatkan', 'vaksinasi', 'pandemi_covid', 'daerah', 'kesehatan', 'vaksin', 'negara', 'langsung', 'kelompok', 'virus', 'ditemukan', 'terkait', 'dunia', 'tubuh', 'covid', 'penyakit', 'informasi']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'kanker', 'pandemi', 'langsung', 'negara', 'layanan', 'sehat', 'pendidikan', 'terkait', 'dokter', 'daerah', 'masuk', 'rumah_sakit', 'menyebabkan', 'penyakit', 'covid', 'meningkatkan', 'pelayanan', 'pemerintah', 'jantung', 'sistem', 'puskesmas', 'sakit', 'kesehatan']</t>
+          <t>['program', 'pendidikan', 'indonesia', 'rumah_sakit', 'dokter', 'menyebabkan', 'pandemi', 'sakit', 'meningkatkan', 'jantung', 'pandemi_covid', 'kesehatan', 'puskesmas', 'pelayanan', 'langsung', 'pemerintah', 'presiden_joko', 'terkait', 'covid', 'penyakit']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['membantu', 'mengaku', 'kali', 'bandung', 'indonesia', 'acara', 'provinsi', 'digelar', 'jakarta', 'kesehatan', 'jawa', 'bantuan', 'peserta']</t>
+          <t>['bantuan', 'mengaku', 'bandung', 'acara', 'peserta', 'jakarta', 'kesehatan', 'kali', 'indonesia', 'membantu']</t>
         </is>
       </c>
       <c r="F145" t="n">
